--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="295">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -64,49 +64,841 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>#JTC00000005</t>
+    <t>#JTC00000134</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>CAT 2</t>
+  </si>
+  <si>
+    <t>Devin Hoeckel</t>
+  </si>
+  <si>
+    <t>19 ASOS</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2018-01-08 16:57:45</t>
+  </si>
+  <si>
+    <t>Entities not viewable in parts of the SW US</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>Root Cause - Software Visual Database Discrepancy</t>
+  </si>
+  <si>
+    <t>Visual Database Discrepancy</t>
+  </si>
+  <si>
+    <t>#JTC00000168</t>
+  </si>
+  <si>
+    <t>Skip Hamilton</t>
+  </si>
+  <si>
+    <t>6 CTS</t>
+  </si>
+  <si>
+    <t>2018-02-08 20:30:12</t>
+  </si>
+  <si>
+    <t>Projector #4 image (bottom right of screen blacks out for a couple seconds or flickers and goes to a yellow/green tint over the image every 5-10 minutes</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2018-02-08</t>
+  </si>
+  <si>
+    <t>Root Cause - Visual DisplayPort Cable Failure</t>
+  </si>
+  <si>
+    <t>DisplayPort Cable Failure</t>
+  </si>
+  <si>
+    <t>#JTC00000171</t>
+  </si>
+  <si>
+    <t>2018-02-08 21:32:28</t>
+  </si>
+  <si>
+    <t>Projector #10 image blacks out routinely for 1-3 seconds and then comes back</t>
+  </si>
+  <si>
+    <t>#JTC00000206</t>
   </si>
   <si>
     <t>Solved</t>
   </si>
   <si>
+    <t>Chris Johnson</t>
+  </si>
+  <si>
+    <t>20 ASOS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2018-03-01 19:48:23</t>
+  </si>
+  <si>
+    <t>BAD Feb Update disk</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>#JTC00000208</t>
+  </si>
+  <si>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018-03-02 16:29:21</t>
+  </si>
+  <si>
+    <t>IZLID Com Failure</t>
+  </si>
+  <si>
+    <t>2018-03-02</t>
+  </si>
+  <si>
+    <t>#JTC00000209</t>
+  </si>
+  <si>
+    <t>2018-03-02 16:36:57</t>
+  </si>
+  <si>
+    <t>Ground based laser spot does not show in targeting pod view.</t>
+  </si>
+  <si>
+    <t>#JTC00000210</t>
+  </si>
+  <si>
+    <t>CAT 3</t>
+  </si>
+  <si>
+    <t>5 ASOS</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2018-03-02 23:00:21</t>
+  </si>
+  <si>
+    <t>Helpdesk migration</t>
+  </si>
+  <si>
+    <t>#JTC00000211</t>
+  </si>
+  <si>
+    <t>2018-03-02 23:07:13</t>
+  </si>
+  <si>
+    <t>Korea Terrain Database</t>
+  </si>
+  <si>
+    <t>#JTC00000212</t>
+  </si>
+  <si>
+    <t>2018-03-03 01:07:30</t>
+  </si>
+  <si>
+    <t>Ranger 47 lock up</t>
+  </si>
+  <si>
+    <t>2018-03-03</t>
+  </si>
+  <si>
+    <t>#JTC00000213</t>
+  </si>
+  <si>
+    <t>20 ASOS, Det 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2018-03-05 21:17:43</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>#JTC00000214</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2018-03-05 21:19:25</t>
+  </si>
+  <si>
+    <t>IZLID</t>
+  </si>
+  <si>
+    <t>#JTC00000215</t>
+  </si>
+  <si>
+    <t>2018-03-06 20:14:29</t>
+  </si>
+  <si>
+    <t>Projectors blinking in and out</t>
+  </si>
+  <si>
+    <t>2018-03-06</t>
+  </si>
+  <si>
+    <t>#JTC00000216</t>
+  </si>
+  <si>
     <t>CAT 1</t>
   </si>
   <si>
-    <t>Chris Johnson</t>
-  </si>
-  <si>
-    <t>17 STS</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2017-02-27 21:23:28</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>IOS PC hangs at boot</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>2017-02-27</t>
-  </si>
-  <si>
-    <t>Undefined</t>
-  </si>
-  <si>
-    <t>#JTC00000006</t>
-  </si>
-  <si>
-    <t>2017-02-27 21:36:02</t>
-  </si>
-  <si>
-    <t>IG-6 in wrong resolution</t>
+    <t>10 ASOS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2018-03-06 21:14:01</t>
+  </si>
+  <si>
+    <t>Sony Projector login</t>
+  </si>
+  <si>
+    <t>#JTC00000217</t>
+  </si>
+  <si>
+    <t>2018-03-07 15:24:13</t>
+  </si>
+  <si>
+    <t>Projector blending</t>
+  </si>
+  <si>
+    <t>2018-03-07</t>
+  </si>
+  <si>
+    <t>#JTC00000218</t>
+  </si>
+  <si>
+    <t>2018-03-07 15:25:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prjoector recalibration </t>
+  </si>
+  <si>
+    <t>#JTC00000219</t>
+  </si>
+  <si>
+    <t>2018-03-07 15:59:53</t>
+  </si>
+  <si>
+    <t>DMO operations</t>
+  </si>
+  <si>
+    <t>#JTC00000220</t>
+  </si>
+  <si>
+    <t>2018-03-07 17:16:45</t>
+  </si>
+  <si>
+    <t>VRSG problems after editing terrain</t>
+  </si>
+  <si>
+    <t>#JTC00000221</t>
+  </si>
+  <si>
+    <t>2018-03-07 17:20:58</t>
+  </si>
+  <si>
+    <t>#JTC00000222</t>
+  </si>
+  <si>
+    <t>2018-03-08 17:27:00</t>
+  </si>
+  <si>
+    <t>Projector Issue</t>
+  </si>
+  <si>
+    <t>2018-03-08</t>
+  </si>
+  <si>
+    <t>#JTC00000223</t>
+  </si>
+  <si>
+    <t>13 ASOS</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2018-03-08 19:09:49</t>
+  </si>
+  <si>
+    <t>Create Password</t>
+  </si>
+  <si>
+    <t>#JTC00000207</t>
+  </si>
+  <si>
+    <t>14 ASOS</t>
+  </si>
+  <si>
+    <t>Issue sent to ASTi for review.</t>
+  </si>
+  <si>
+    <t>2018-03-02 16:17:42</t>
+  </si>
+  <si>
+    <t>Web form</t>
+  </si>
+  <si>
+    <t>ASTi freq bleed over</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ASTi Radios Bleeding over during DMO events. Only site to report such activity and is captured in a different ticket</t>
+  </si>
+  <si>
+    <t>Root Cause - Software ASTi Error</t>
+  </si>
+  <si>
+    <t>ASTi Error</t>
+  </si>
+  <si>
+    <t>#JTC00000224</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Kyle Zamudio</t>
+  </si>
+  <si>
+    <t>2018-03-08 21:24:00</t>
+  </si>
+  <si>
+    <t>ROLE Player radio transmits garbled at initial start up.</t>
+  </si>
+  <si>
+    <t>#JTC00000225</t>
+  </si>
+  <si>
+    <t>2018-03-09 19:35:50</t>
+  </si>
+  <si>
+    <t>NESSUS results</t>
+  </si>
+  <si>
+    <t>2018-03-09</t>
+  </si>
+  <si>
+    <t>#JTC00000227</t>
+  </si>
+  <si>
+    <t>2 ASOS</t>
+  </si>
+  <si>
+    <t>2018-03-09 20:05:31</t>
+  </si>
+  <si>
+    <t>Dome display is not synched on over 50% of dome</t>
+  </si>
+  <si>
+    <t>#JTC00000228</t>
+  </si>
+  <si>
+    <t>2018-03-13 15:40:24</t>
+  </si>
+  <si>
+    <t>Need number other than 877 help desk number</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>#JTC00000226</t>
+  </si>
+  <si>
+    <t>2018-03-09 19:58:07</t>
+  </si>
+  <si>
+    <t>Black spot in Ranger</t>
+  </si>
+  <si>
+    <t>#JTC00000229</t>
+  </si>
+  <si>
+    <t>2018-03-13 15:52:20</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>#JTC00000230</t>
+  </si>
+  <si>
+    <t>2018-03-13 19:51:12</t>
+  </si>
+  <si>
+    <t>Ranger 47 not tracking</t>
+  </si>
+  <si>
+    <t>#JTC00000231</t>
+  </si>
+  <si>
+    <t>2018-03-14 15:27:19</t>
+  </si>
+  <si>
+    <t>Incoming call from +4971170731200</t>
+  </si>
+  <si>
+    <t>2018-03-14</t>
+  </si>
+  <si>
+    <t>#JTC00000233</t>
+  </si>
+  <si>
+    <t>2018-03-15 13:09:39</t>
+  </si>
+  <si>
+    <t>IOS WakeON issue</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>#JTC00000234</t>
+  </si>
+  <si>
+    <t>2018-03-15 21:37:44</t>
+  </si>
+  <si>
+    <t>Ranger locked up and more</t>
+  </si>
+  <si>
+    <t>#JTC00000235</t>
+  </si>
+  <si>
+    <t>2018-03-15 21:41:15</t>
+  </si>
+  <si>
+    <t>Cloud coverage displays improperly in ROVER view</t>
+  </si>
+  <si>
+    <t>#JTC00000236</t>
+  </si>
+  <si>
+    <t>2018-03-15 21:52:37</t>
+  </si>
+  <si>
+    <t>Scripting radio traffic</t>
+  </si>
+  <si>
+    <t>#JTC00000232</t>
+  </si>
+  <si>
+    <t>2018-03-14 20:33:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE PLAYER POD </t>
+  </si>
+  <si>
+    <t>#JTC00000238</t>
+  </si>
+  <si>
+    <t>2018-03-21 14:41:31</t>
+  </si>
+  <si>
+    <t>VRSG on MVP</t>
+  </si>
+  <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>#JTC00000239</t>
+  </si>
+  <si>
+    <t>2018-03-21 15:29:16</t>
+  </si>
+  <si>
+    <t>UPS battery</t>
+  </si>
+  <si>
+    <t>#JTC00000240</t>
+  </si>
+  <si>
+    <t>2018-03-21 15:37:51</t>
+  </si>
+  <si>
+    <t>Comm Panels /foot pedals at MVP and IOS shorting out monitors, no transmit, or constant transmit</t>
+  </si>
+  <si>
+    <t>#JTC00000241</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2018-03-21 15:41:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-dome volume insane.  </t>
+  </si>
+  <si>
+    <t>#JTC00000242</t>
+  </si>
+  <si>
+    <t>2018-03-21 18:57:21</t>
+  </si>
+  <si>
+    <t>Sys #21 IG-2 not projecting image</t>
+  </si>
+  <si>
+    <t>#JTC00000243</t>
+  </si>
+  <si>
+    <t>2018-03-21 19:06:55</t>
+  </si>
+  <si>
+    <t>IG-2 will not open and produce an image</t>
+  </si>
+  <si>
+    <t>#JTC00000237</t>
+  </si>
+  <si>
+    <t>25 ASOS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2018-03-20 21:48:19</t>
+  </si>
+  <si>
+    <t>Feb 18 Scans and Update files</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
+  </si>
+  <si>
+    <t>#JTC00000245</t>
+  </si>
+  <si>
+    <t>2018-03-21 20:31:23</t>
+  </si>
+  <si>
+    <t>EME equipment is showing up under the ground</t>
+  </si>
+  <si>
+    <t>#JTC00000246</t>
+  </si>
+  <si>
+    <t>2018-03-21 20:38:00</t>
+  </si>
+  <si>
+    <t>A/C are splitting into duobles</t>
+  </si>
+  <si>
+    <t>#JTC00000244</t>
+  </si>
+  <si>
+    <t>2018-03-21 20:18:29</t>
+  </si>
+  <si>
+    <t>VRSG does not display correctly in dome</t>
+  </si>
+  <si>
+    <t>#JTC00000247</t>
+  </si>
+  <si>
+    <t>2018-03-21 21:54:25</t>
+  </si>
+  <si>
+    <t>Incoming call from +17195240044</t>
+  </si>
+  <si>
+    <t>#JTC00000248</t>
+  </si>
+  <si>
+    <t>2018-03-22 14:33:24</t>
+  </si>
+  <si>
+    <t>monthly cyber security package</t>
+  </si>
+  <si>
+    <t>2018-03-22</t>
+  </si>
+  <si>
+    <t>#JTC00000249</t>
+  </si>
+  <si>
+    <t>2018-03-22 14:36:37</t>
+  </si>
+  <si>
+    <t>Incoming call from +12704619994</t>
+  </si>
+  <si>
+    <t>#JTC00000250</t>
+  </si>
+  <si>
+    <t>2018-03-22 15:55:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voisus Comm panel display a NO ROLE SET </t>
+  </si>
+  <si>
+    <t>#JTC00000251</t>
+  </si>
+  <si>
+    <t>2018-03-22 16:05:19</t>
+  </si>
+  <si>
+    <t>Incoming call from +12539670181</t>
+  </si>
+  <si>
+    <t>#JTC00000252</t>
+  </si>
+  <si>
+    <t>2018-03-22 16:31:20</t>
+  </si>
+  <si>
+    <t>#JTC00000253</t>
+  </si>
+  <si>
+    <t>2018-03-22 17:24:24</t>
+  </si>
+  <si>
+    <t>#JTC00000255</t>
+  </si>
+  <si>
+    <t>15 ASOS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2018-03-23 21:40:51</t>
+  </si>
+  <si>
+    <t>Unable to connect to Security Center through Web Interface</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>#JTC00000256</t>
+  </si>
+  <si>
+    <t>2018-03-23 23:31:50</t>
+  </si>
+  <si>
+    <t>Ranger locked up</t>
+  </si>
+  <si>
+    <t>#JTC00000257</t>
+  </si>
+  <si>
+    <t>2018-03-26 12:08:18</t>
+  </si>
+  <si>
+    <t>ISO is Off  Line</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>#JTC00000254</t>
+  </si>
+  <si>
+    <t>7 ASOS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018-03-22 17:33:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRSG license expire </t>
+  </si>
+  <si>
+    <t>#JTC00000258</t>
+  </si>
+  <si>
+    <t>2018-03-26 13:06:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalable coming up with error message, won't run. </t>
+  </si>
+  <si>
+    <t>#JTC00000260</t>
+  </si>
+  <si>
+    <t>2018-03-27 12:24:03</t>
+  </si>
+  <si>
+    <t>ACAS Scans</t>
+  </si>
+  <si>
+    <t>2018-03-27</t>
+  </si>
+  <si>
+    <t>#JTC00000259</t>
+  </si>
+  <si>
+    <t>2018-03-26 22:41:49</t>
+  </si>
+  <si>
+    <t>March Updates Wheeler AAF HI</t>
+  </si>
+  <si>
+    <t>#JTC00000261</t>
+  </si>
+  <si>
+    <t>Robert Gaines</t>
+  </si>
+  <si>
+    <t>2018-03-27 17:26:43</t>
+  </si>
+  <si>
+    <t>MACE sound scripting does not work properly with ASTi radios</t>
+  </si>
+  <si>
+    <t>Root Cause - Software MACE Error</t>
+  </si>
+  <si>
+    <t>MACE Error</t>
+  </si>
+  <si>
+    <t>#JTC00000262</t>
+  </si>
+  <si>
+    <t>2018-03-27 19:19:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projector 1 won't turn on </t>
+  </si>
+  <si>
+    <t>#JTC00000264</t>
+  </si>
+  <si>
+    <t>2018-03-29 16:43:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor issue </t>
+  </si>
+  <si>
+    <t>2018-03-29</t>
+  </si>
+  <si>
+    <t>#JTC00000263</t>
+  </si>
+  <si>
+    <t>2018-03-28 22:14:08</t>
+  </si>
+  <si>
+    <t>Projector 1 not working</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
+    <t>#JTC00000347</t>
+  </si>
+  <si>
+    <t>None ATT</t>
+  </si>
+  <si>
+    <t>2018-05-10 13:56:37</t>
+  </si>
+  <si>
+    <t>ASTI Radios bleeding over.</t>
+  </si>
+  <si>
+    <t>Issue sent to ASTi for review</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
+    <t>#JTC00000310</t>
+  </si>
+  <si>
+    <t>Toggle the ground clamp options on MVP</t>
+  </si>
+  <si>
+    <t>2018-04-17 14:42:11</t>
+  </si>
+  <si>
+    <t>MVP visual height error during DMO events</t>
+  </si>
+  <si>
+    <t>Floating Entities during DMO on MVP Views</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>Root Cause - Software VRSG Error</t>
+  </si>
+  <si>
+    <t>VRSG Error</t>
+  </si>
+  <si>
+    <t>#JTC00000397</t>
+  </si>
+  <si>
+    <t>Steve Dumont</t>
+  </si>
+  <si>
+    <t>QuantaDyn</t>
+  </si>
+  <si>
+    <t>2018-06-13 14:11:32</t>
+  </si>
+  <si>
+    <t>Seam separation Ft Hood 9 ASOS</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2018-06-13</t>
+  </si>
+  <si>
+    <t>Root Cause - Visual Screen Damaged</t>
+  </si>
+  <si>
+    <t>Screen Damaged</t>
   </si>
 </sst>
 </file>
@@ -447,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,24 +1321,27 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -561,40 +1356,3193 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>155</v>
+      </c>
+      <c r="O30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" t="s">
+        <v>159</v>
+      </c>
+      <c r="O32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>165</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
+        <v>155</v>
+      </c>
+      <c r="O35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>175</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" t="s">
+        <v>197</v>
+      </c>
+      <c r="O42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>175</v>
+      </c>
+      <c r="O43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" t="s">
+        <v>175</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>212</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O47" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" t="s">
+        <v>213</v>
+      </c>
+      <c r="O48" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" t="s">
+        <v>213</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" t="s">
+        <v>221</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" t="s">
+        <v>213</v>
+      </c>
+      <c r="O50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" t="s">
+        <v>213</v>
+      </c>
+      <c r="O51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" t="s">
+        <v>226</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" t="s">
+        <v>213</v>
+      </c>
+      <c r="O52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" t="s">
+        <v>232</v>
+      </c>
+      <c r="O53" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>235</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" t="s">
+        <v>232</v>
+      </c>
+      <c r="O54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>237</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>239</v>
+      </c>
+      <c r="O55" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>244</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O56" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>247</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>239</v>
+      </c>
+      <c r="O57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>250</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" t="s">
+        <v>251</v>
+      </c>
+      <c r="O58" t="s">
+        <v>49</v>
+      </c>
+      <c r="P58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>254</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" t="s">
+        <v>239</v>
+      </c>
+      <c r="O59" t="s">
+        <v>49</v>
+      </c>
+      <c r="P59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" t="s">
+        <v>257</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>258</v>
+      </c>
+      <c r="K60" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>256</v>
+      </c>
+      <c r="N60" t="s">
+        <v>251</v>
+      </c>
+      <c r="O60" t="s">
+        <v>259</v>
+      </c>
+      <c r="P60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>263</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" t="s">
+        <v>251</v>
+      </c>
+      <c r="O61" t="s">
+        <v>49</v>
+      </c>
+      <c r="P61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>265</v>
+      </c>
+      <c r="H62" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>266</v>
+      </c>
+      <c r="K62" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" t="s">
+        <v>267</v>
+      </c>
+      <c r="O62" t="s">
+        <v>49</v>
+      </c>
+      <c r="P62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>270</v>
+      </c>
+      <c r="K63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" t="s">
+        <v>271</v>
+      </c>
+      <c r="O63" t="s">
+        <v>49</v>
+      </c>
+      <c r="P63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" t="s">
+        <v>274</v>
+      </c>
+      <c r="I64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" t="s">
+        <v>275</v>
+      </c>
+      <c r="K64" t="s">
+        <v>122</v>
+      </c>
+      <c r="L64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" t="s">
+        <v>277</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" t="s">
+        <v>280</v>
+      </c>
+      <c r="H65" t="s">
+        <v>280</v>
+      </c>
+      <c r="I65" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" t="s">
+        <v>281</v>
+      </c>
+      <c r="K65" t="s">
+        <v>89</v>
+      </c>
+      <c r="L65" t="s">
+        <v>282</v>
+      </c>
+      <c r="M65" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="N65" t="s">
+        <v>283</v>
+      </c>
+      <c r="O65" t="s">
+        <v>284</v>
+      </c>
+      <c r="P65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" t="s">
+        <v>288</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>290</v>
+      </c>
+      <c r="K66" t="s">
+        <v>291</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>287</v>
+      </c>
+      <c r="N66" t="s">
+        <v>292</v>
+      </c>
+      <c r="O66" t="s">
+        <v>293</v>
+      </c>
+      <c r="P66" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="760">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -166,6 +166,39 @@
     <t>Undefined</t>
   </si>
   <si>
+    <t>#JTC00000207</t>
+  </si>
+  <si>
+    <t>14 ASOS</t>
+  </si>
+  <si>
+    <t>Issue sent to ASTi for review.</t>
+  </si>
+  <si>
+    <t>2018-03-02 16:17:42</t>
+  </si>
+  <si>
+    <t>Web form</t>
+  </si>
+  <si>
+    <t>ASTi freq bleed over</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ASTi Radios Bleeding over during DMO events. Only site to report such activity and is captured in a different ticket</t>
+  </si>
+  <si>
+    <t>2018-03-02</t>
+  </si>
+  <si>
+    <t>Root Cause - Software ASTi Error</t>
+  </si>
+  <si>
+    <t>ASTi Error</t>
+  </si>
+  <si>
     <t>#JTC00000208</t>
   </si>
   <si>
@@ -181,9 +214,6 @@
     <t>IZLID Com Failure</t>
   </si>
   <si>
-    <t>2018-03-02</t>
-  </si>
-  <si>
     <t>#JTC00000209</t>
   </si>
   <si>
@@ -364,36 +394,6 @@
     <t>Create Password</t>
   </si>
   <si>
-    <t>#JTC00000207</t>
-  </si>
-  <si>
-    <t>14 ASOS</t>
-  </si>
-  <si>
-    <t>Issue sent to ASTi for review.</t>
-  </si>
-  <si>
-    <t>2018-03-02 16:17:42</t>
-  </si>
-  <si>
-    <t>Web form</t>
-  </si>
-  <si>
-    <t>ASTi freq bleed over</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ASTi Radios Bleeding over during DMO events. Only site to report such activity and is captured in a different ticket</t>
-  </si>
-  <si>
-    <t>Root Cause - Software ASTi Error</t>
-  </si>
-  <si>
-    <t>ASTi Error</t>
-  </si>
-  <si>
     <t>#JTC00000224</t>
   </si>
   <si>
@@ -421,6 +421,15 @@
     <t>2018-03-09</t>
   </si>
   <si>
+    <t>#JTC00000226</t>
+  </si>
+  <si>
+    <t>2018-03-09 19:58:07</t>
+  </si>
+  <si>
+    <t>Black spot in Ranger</t>
+  </si>
+  <si>
     <t>#JTC00000227</t>
   </si>
   <si>
@@ -445,15 +454,6 @@
     <t>2018-03-13</t>
   </si>
   <si>
-    <t>#JTC00000226</t>
-  </si>
-  <si>
-    <t>2018-03-09 19:58:07</t>
-  </si>
-  <si>
-    <t>Black spot in Ranger</t>
-  </si>
-  <si>
     <t>#JTC00000229</t>
   </si>
   <si>
@@ -484,6 +484,15 @@
     <t>2018-03-14</t>
   </si>
   <si>
+    <t>#JTC00000232</t>
+  </si>
+  <si>
+    <t>2018-03-14 20:33:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE PLAYER POD </t>
+  </si>
+  <si>
     <t>#JTC00000233</t>
   </si>
   <si>
@@ -523,13 +532,22 @@
     <t>Scripting radio traffic</t>
   </si>
   <si>
-    <t>#JTC00000232</t>
-  </si>
-  <si>
-    <t>2018-03-14 20:33:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE PLAYER POD </t>
+    <t>#JTC00000237</t>
+  </si>
+  <si>
+    <t>25 ASOS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2018-03-20 21:48:19</t>
+  </si>
+  <si>
+    <t>Feb 18 Scans and Update files</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
   </si>
   <si>
     <t>#JTC00000238</t>
@@ -592,22 +610,13 @@
     <t>IG-2 will not open and produce an image</t>
   </si>
   <si>
-    <t>#JTC00000237</t>
-  </si>
-  <si>
-    <t>25 ASOS</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2018-03-20 21:48:19</t>
-  </si>
-  <si>
-    <t>Feb 18 Scans and Update files</t>
-  </si>
-  <si>
-    <t>2018-03-20</t>
+    <t>#JTC00000244</t>
+  </si>
+  <si>
+    <t>2018-03-21 20:18:29</t>
+  </si>
+  <si>
+    <t>VRSG does not display correctly in dome</t>
   </si>
   <si>
     <t>#JTC00000245</t>
@@ -628,15 +637,6 @@
     <t>A/C are splitting into duobles</t>
   </si>
   <si>
-    <t>#JTC00000244</t>
-  </si>
-  <si>
-    <t>2018-03-21 20:18:29</t>
-  </si>
-  <si>
-    <t>VRSG does not display correctly in dome</t>
-  </si>
-  <si>
     <t>#JTC00000247</t>
   </si>
   <si>
@@ -697,6 +697,21 @@
     <t>2018-03-22 17:24:24</t>
   </si>
   <si>
+    <t>#JTC00000254</t>
+  </si>
+  <si>
+    <t>7 ASOS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018-03-22 17:33:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRSG license expire </t>
+  </si>
+  <si>
     <t>#JTC00000255</t>
   </si>
   <si>
@@ -736,21 +751,6 @@
     <t>2018-03-26</t>
   </si>
   <si>
-    <t>#JTC00000254</t>
-  </si>
-  <si>
-    <t>7 ASOS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2018-03-22 17:33:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRSG license expire </t>
-  </si>
-  <si>
     <t>#JTC00000258</t>
   </si>
   <si>
@@ -760,6 +760,15 @@
     <t xml:space="preserve">Scalable coming up with error message, won't run. </t>
   </si>
   <si>
+    <t>#JTC00000259</t>
+  </si>
+  <si>
+    <t>2018-03-26 22:41:49</t>
+  </si>
+  <si>
+    <t>March Updates Wheeler AAF HI</t>
+  </si>
+  <si>
     <t>#JTC00000260</t>
   </si>
   <si>
@@ -772,15 +781,6 @@
     <t>2018-03-27</t>
   </si>
   <si>
-    <t>#JTC00000259</t>
-  </si>
-  <si>
-    <t>2018-03-26 22:41:49</t>
-  </si>
-  <si>
-    <t>March Updates Wheeler AAF HI</t>
-  </si>
-  <si>
     <t>#JTC00000261</t>
   </si>
   <si>
@@ -808,6 +808,18 @@
     <t xml:space="preserve">Projector 1 won't turn on </t>
   </si>
   <si>
+    <t>#JTC00000263</t>
+  </si>
+  <si>
+    <t>2018-03-28 22:14:08</t>
+  </si>
+  <si>
+    <t>Projector 1 not working</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
     <t>#JTC00000264</t>
   </si>
   <si>
@@ -820,16 +832,28 @@
     <t>2018-03-29</t>
   </si>
   <si>
-    <t>#JTC00000263</t>
-  </si>
-  <si>
-    <t>2018-03-28 22:14:08</t>
-  </si>
-  <si>
-    <t>Projector 1 not working</t>
-  </si>
-  <si>
-    <t>2018-03-28</t>
+    <t>#JTC00000310</t>
+  </si>
+  <si>
+    <t>Toggle the ground clamp options on MVP</t>
+  </si>
+  <si>
+    <t>2018-04-17 14:42:11</t>
+  </si>
+  <si>
+    <t>MVP visual height error during DMO events</t>
+  </si>
+  <si>
+    <t>Floating Entities during DMO on MVP Views</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>Root Cause - Software VRSG Error</t>
+  </si>
+  <si>
+    <t>VRSG Error</t>
   </si>
   <si>
     <t>#JTC00000347</t>
@@ -850,30 +874,6 @@
     <t>2018-05-10</t>
   </si>
   <si>
-    <t>#JTC00000310</t>
-  </si>
-  <si>
-    <t>Toggle the ground clamp options on MVP</t>
-  </si>
-  <si>
-    <t>2018-04-17 14:42:11</t>
-  </si>
-  <si>
-    <t>MVP visual height error during DMO events</t>
-  </si>
-  <si>
-    <t>Floating Entities during DMO on MVP Views</t>
-  </si>
-  <si>
-    <t>2019-04-01</t>
-  </si>
-  <si>
-    <t>Root Cause - Software VRSG Error</t>
-  </si>
-  <si>
-    <t>VRSG Error</t>
-  </si>
-  <si>
     <t>#JTC00000397</t>
   </si>
   <si>
@@ -899,6 +899,1401 @@
   </si>
   <si>
     <t>Screen Damaged</t>
+  </si>
+  <si>
+    <t>#JTC00000524</t>
+  </si>
+  <si>
+    <t>2018-09-04 12:49:03</t>
+  </si>
+  <si>
+    <t>Tear in screen</t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+  </si>
+  <si>
+    <t>#JTC00000540</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>12 CTS</t>
+  </si>
+  <si>
+    <t>2018-09-12 21:57:01</t>
+  </si>
+  <si>
+    <t>Re: IG 8 surround broken / bad display port</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2018-09-12</t>
+  </si>
+  <si>
+    <t>#JTC00000564</t>
+  </si>
+  <si>
+    <t>2018-10-04 12:19:12</t>
+  </si>
+  <si>
+    <t>PEQ-15 from M4 #2 broken tab &amp; PEQ-15 from M4 #1 broken mount</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware M-4</t>
+  </si>
+  <si>
+    <t>M-4</t>
+  </si>
+  <si>
+    <t>#JTC00000568</t>
+  </si>
+  <si>
+    <t>23 STS</t>
+  </si>
+  <si>
+    <t>2018-10-05 17:21:05</t>
+  </si>
+  <si>
+    <t>IG &amp; Proj 4 having resolution issues and IOS is randoly booting up overnight after system shutdown</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2018-10-05</t>
+  </si>
+  <si>
+    <t>Root Cause - Visual Surround Error</t>
+  </si>
+  <si>
+    <t>Surround Error</t>
+  </si>
+  <si>
+    <t>#JTC00000581</t>
+  </si>
+  <si>
+    <t>2018-10-10 19:37:11</t>
+  </si>
+  <si>
+    <t>IG Projctors color-blending/Focus needs to be adjusted.</t>
+  </si>
+  <si>
+    <t>2018-10-10</t>
+  </si>
+  <si>
+    <t>Root Cause - Visual Calibration</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>#JTC00000605</t>
+  </si>
+  <si>
+    <t>2018-10-26 21:37:36</t>
+  </si>
+  <si>
+    <t>M4 #1 continuously fires in MACE</t>
+  </si>
+  <si>
+    <t>2018-10-26</t>
+  </si>
+  <si>
+    <t>#JTC00000625</t>
+  </si>
+  <si>
+    <t>2018-11-07 17:10:51</t>
+  </si>
+  <si>
+    <t>VRSG on MVP shutting down by itself during mission</t>
+  </si>
+  <si>
+    <t>2018-11-07</t>
+  </si>
+  <si>
+    <t>#JTC00000626</t>
+  </si>
+  <si>
+    <t>2018-11-07 17:11:36</t>
+  </si>
+  <si>
+    <t>#JTC00000650</t>
+  </si>
+  <si>
+    <t>2018-11-19 16:33:42</t>
+  </si>
+  <si>
+    <t>VRSG Remote fails to consistently update the terrain search path</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>Root Cause - Software DOC Error</t>
+  </si>
+  <si>
+    <t>DOC Error</t>
+  </si>
+  <si>
+    <t>#JTC00000654</t>
+  </si>
+  <si>
+    <t>2018-11-20 13:54:53</t>
+  </si>
+  <si>
+    <t>Temporary canvas replacement screen requires replacement with high-contrast screen.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>#JTC00000671</t>
+  </si>
+  <si>
+    <t>2018-11-27 23:25:58</t>
+  </si>
+  <si>
+    <t>Q-Fires Rover Crashing</t>
+  </si>
+  <si>
+    <t>2018-11-27</t>
+  </si>
+  <si>
+    <t>Root Cause - Software Q-Fires ROVER Error</t>
+  </si>
+  <si>
+    <t>Q-Fires ROVER Error</t>
+  </si>
+  <si>
+    <t>#JTC00000687</t>
+  </si>
+  <si>
+    <t>2018-12-05 15:43:54</t>
+  </si>
+  <si>
+    <t>MVP VRSG Crash</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>#JTC00000702</t>
+  </si>
+  <si>
+    <t>2018-12-11 11:58:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP Crashing </t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>#JTC00000717</t>
+  </si>
+  <si>
+    <t>2018-12-14 15:51:59</t>
+  </si>
+  <si>
+    <t>Grids unreadable on student and RPS ROVER displays</t>
+  </si>
+  <si>
+    <t>Targeting Pod Plugin</t>
+  </si>
+  <si>
+    <t>2018-12-14</t>
+  </si>
+  <si>
+    <t>Root Cause - Software DIScover Error</t>
+  </si>
+  <si>
+    <t>DIScover Error</t>
+  </si>
+  <si>
+    <t>#JTC00000740</t>
+  </si>
+  <si>
+    <t>2018-12-21 20:59:26</t>
+  </si>
+  <si>
+    <t>IG 1 VRSG starts up in window Mode on all 3 devices</t>
+  </si>
+  <si>
+    <t>2018-12-21</t>
+  </si>
+  <si>
+    <t>#JTC00000765</t>
+  </si>
+  <si>
+    <t>2019-01-10 22:25:35</t>
+  </si>
+  <si>
+    <t>Degraded video quality from MVP VRSG</t>
+  </si>
+  <si>
+    <t>2019-01-10</t>
+  </si>
+  <si>
+    <t>#JTC00000770</t>
+  </si>
+  <si>
+    <t>2019-01-11 23:38:23</t>
+  </si>
+  <si>
+    <t>absent transporter erector launcher (TEL) in VRSG</t>
+  </si>
+  <si>
+    <t>2019-01-11</t>
+  </si>
+  <si>
+    <t>#JTC00000775</t>
+  </si>
+  <si>
+    <t>2019-01-14 22:27:04</t>
+  </si>
+  <si>
+    <t>Projector #9 strobing yellow tint on entire image</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>Root Cause - Visual Projector Failure (BARCO)</t>
+  </si>
+  <si>
+    <t>Projector Failure (BARCO)</t>
+  </si>
+  <si>
+    <t>#JTC00000789</t>
+  </si>
+  <si>
+    <t>3 ASOS, Det 1</t>
+  </si>
+  <si>
+    <t>2019-01-17 17:08:27</t>
+  </si>
+  <si>
+    <t>Dome Image Blurry</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
+    <t>#JTC00000793</t>
+  </si>
+  <si>
+    <t>2019-01-18 19:05:31</t>
+  </si>
+  <si>
+    <t>RPS Targeting Pod Display Issue &amp; MVP TGP Accuracy</t>
+  </si>
+  <si>
+    <t>Targeting Pod error</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>#JTC00000814</t>
+  </si>
+  <si>
+    <t>2019-01-24 18:26:35</t>
+  </si>
+  <si>
+    <t>Projector # 7 goes to stand by mode every 10 minutes, image turns black</t>
+  </si>
+  <si>
+    <t>2019-01-24</t>
+  </si>
+  <si>
+    <t>#JTC00000815</t>
+  </si>
+  <si>
+    <t>2019-01-24 18:28:07</t>
+  </si>
+  <si>
+    <t>Pilot Station MACE shuts down by itself during mission</t>
+  </si>
+  <si>
+    <t>#JTC00000816</t>
+  </si>
+  <si>
+    <t>2019-01-24 18:29:24</t>
+  </si>
+  <si>
+    <t>Pilot Station VRSG closes by itself during missions</t>
+  </si>
+  <si>
+    <t>#JTC00000823</t>
+  </si>
+  <si>
+    <t>2019-01-25 16:05:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projector 8 not booting up and has "XOXOXO" on it. Incorrect Resolution </t>
+  </si>
+  <si>
+    <t>Root Cause - Visual Projector Failure (SONY)</t>
+  </si>
+  <si>
+    <t>Projector Failure (SONY)</t>
+  </si>
+  <si>
+    <t>#JTC00000849</t>
+  </si>
+  <si>
+    <t>607 ASOG</t>
+  </si>
+  <si>
+    <t>Replace PRJ cable</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:38:38</t>
+  </si>
+  <si>
+    <t>IG 8 has a faulty dp cable</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Waiting for SIM OPR to confirm new cable was recieved</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Monitor Cable</t>
+  </si>
+  <si>
+    <t>Monitor Cable</t>
+  </si>
+  <si>
+    <t>#JTC00000855</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:19:00</t>
+  </si>
+  <si>
+    <t>DOME image color and blending is very poor</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>#JTC00000862</t>
+  </si>
+  <si>
+    <t>2019-01-31 15:45:53</t>
+  </si>
+  <si>
+    <t>Viewpoint attachment in dome jumps from one entitiy to another</t>
+  </si>
+  <si>
+    <t>#JTC00000872</t>
+  </si>
+  <si>
+    <t>Ordered new screws to ship to site</t>
+  </si>
+  <si>
+    <t>2019-02-01 20:05:35</t>
+  </si>
+  <si>
+    <t>Ranger47 1 and 2 Mounts need to be replaced/repaired</t>
+  </si>
+  <si>
+    <t>Ranger 47 Screws were stripped from usage</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>Root Cause - Other Other - See Comments</t>
+  </si>
+  <si>
+    <t>Other - See Comments</t>
+  </si>
+  <si>
+    <t>#JTC00000873</t>
+  </si>
+  <si>
+    <t>2019-02-01 23:51:12</t>
+  </si>
+  <si>
+    <t>MACE maintenance expired</t>
+  </si>
+  <si>
+    <t>#JTC00000883</t>
+  </si>
+  <si>
+    <t>9 ASOS</t>
+  </si>
+  <si>
+    <t>2019-02-06 17:21:50</t>
+  </si>
+  <si>
+    <t>Projector 8 randomly switches to NVG mode, then back to correct mode of Scenario</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2019-02-06</t>
+  </si>
+  <si>
+    <t>#JTC00000897</t>
+  </si>
+  <si>
+    <t>2019-02-08 14:53:23</t>
+  </si>
+  <si>
+    <t>TrackIR</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware TrackIR</t>
+  </si>
+  <si>
+    <t>#JTC00000910</t>
+  </si>
+  <si>
+    <t>Need additional support from IDSI</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:24:45</t>
+  </si>
+  <si>
+    <t>Can't Calibrate Projectors through scalable; IG3 Error stating "Wrong Resolution Detected"</t>
+  </si>
+  <si>
+    <t>Attempted multiple fixes from two help desk agents and IDSI to resolve calibration issues. We were unable and need additional support to fix the problem</t>
+  </si>
+  <si>
+    <t>Root Cause - Software Scalable Error</t>
+  </si>
+  <si>
+    <t>Scalable Error</t>
+  </si>
+  <si>
+    <t>#JTC00000912</t>
+  </si>
+  <si>
+    <t>Repair M4</t>
+  </si>
+  <si>
+    <t>2019-02-13 22:05:17</t>
+  </si>
+  <si>
+    <t>Student 1, M41 firing by itself rapid fire</t>
+  </si>
+  <si>
+    <t>#JTC00000920</t>
+  </si>
+  <si>
+    <t>Replace cable</t>
+  </si>
+  <si>
+    <t>2019-02-21 01:23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG8/PRJ8 Projector Cable Faulty; troubleshot cables and identified single cable non functional--restored comms using single cable 4096x2160@29hz </t>
+  </si>
+  <si>
+    <t>Cables are out of stock</t>
+  </si>
+  <si>
+    <t>2019-02-21</t>
+  </si>
+  <si>
+    <t>#JTC00000926</t>
+  </si>
+  <si>
+    <t>2019-02-22 21:02:25</t>
+  </si>
+  <si>
+    <t>Student Station won't pick up MVP ROVER feed</t>
+  </si>
+  <si>
+    <t>2019-02-22</t>
+  </si>
+  <si>
+    <t>#JTC00000937</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>2019-02-26 18:42:08</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Ranger 47 2 Inoperable</t>
+  </si>
+  <si>
+    <t>Ranger 47 Display Issues</t>
+  </si>
+  <si>
+    <t>2019-04-02</t>
+  </si>
+  <si>
+    <t>#JTC00000943</t>
+  </si>
+  <si>
+    <t>2019-02-26 21:12:18</t>
+  </si>
+  <si>
+    <t>Shutter function not working from DOC to turn off light emissions from projectors</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>#JTC00000949</t>
+  </si>
+  <si>
+    <t>2019-02-27 16:14:57</t>
+  </si>
+  <si>
+    <t>Issues with Sound/ASTi Post UG2/HF</t>
+  </si>
+  <si>
+    <t>2019-04-03</t>
+  </si>
+  <si>
+    <t>#JTC00000955</t>
+  </si>
+  <si>
+    <t>Repair/Replace M4</t>
+  </si>
+  <si>
+    <t>2019-02-28 20:57:08</t>
+  </si>
+  <si>
+    <t>M4 needs to be repaired/replaced, was causing EME-Server boot issues</t>
+  </si>
+  <si>
+    <t>Faulty M4</t>
+  </si>
+  <si>
+    <t>#JTC00000956</t>
+  </si>
+  <si>
+    <t>Used Jtac-Admin</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:38:14</t>
+  </si>
+  <si>
+    <t>Feb 2019 Patch (UNCLASSIFIED)</t>
+  </si>
+  <si>
+    <t>perators level 2 credentials weren't working, possibly needed to reset his password.</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>Root Cause - Other Operator Error</t>
+  </si>
+  <si>
+    <t>Operator Error</t>
+  </si>
+  <si>
+    <t>#JTC00000957</t>
+  </si>
+  <si>
+    <t>Camera options settings change</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:18:38</t>
+  </si>
+  <si>
+    <t>Camera for Calibration - Error not powered</t>
+  </si>
+  <si>
+    <t>Insufficient power or incorrect settings for camera during calibration</t>
+  </si>
+  <si>
+    <t>#JTC00000958</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:26:53</t>
+  </si>
+  <si>
+    <t>IZLID cap no longer functional</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware IZLID</t>
+  </si>
+  <si>
+    <t>#JTC00000959</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:50:47</t>
+  </si>
+  <si>
+    <t>Voicemail from: Caller +1 (337) 531-6209</t>
+  </si>
+  <si>
+    <t>#JTC00000960</t>
+  </si>
+  <si>
+    <t>advised operator to inquire with the SPO on adding terrain to the device</t>
+  </si>
+  <si>
+    <t>2019-03-01 15:19:36</t>
+  </si>
+  <si>
+    <t>Wanted to add Terrain</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>#JTC00000961</t>
+  </si>
+  <si>
+    <t>fix file path</t>
+  </si>
+  <si>
+    <t>2019-03-01 16:10:32</t>
+  </si>
+  <si>
+    <t>IA Update Inquiry</t>
+  </si>
+  <si>
+    <t>#JTC00000962</t>
+  </si>
+  <si>
+    <t>DMOC</t>
+  </si>
+  <si>
+    <t>Unknown caller</t>
+  </si>
+  <si>
+    <t>2019-03-01 16:36:55</t>
+  </si>
+  <si>
+    <t>Unk Caller and No Voicemail - Spoke with Shane, no current issues</t>
+  </si>
+  <si>
+    <t>#JTC00000963</t>
+  </si>
+  <si>
+    <t>2019-03-01 17:33:59</t>
+  </si>
+  <si>
+    <t>LED Tasklight has stopped working</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Desk Light</t>
+  </si>
+  <si>
+    <t>Desk Light</t>
+  </si>
+  <si>
+    <t>#JTC00000964</t>
+  </si>
+  <si>
+    <t>QunataDyn</t>
+  </si>
+  <si>
+    <t>Test Email</t>
+  </si>
+  <si>
+    <t>2019-03-01 18:06:50</t>
+  </si>
+  <si>
+    <t>Re: [JTC-TRS TSSC] test email</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Root Cause - Other Unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>#JTC00000965</t>
+  </si>
+  <si>
+    <t>2019-03-01 22:02:29</t>
+  </si>
+  <si>
+    <t>Sound levels</t>
+  </si>
+  <si>
+    <t>#JTC00000966</t>
+  </si>
+  <si>
+    <t>724 STG</t>
+  </si>
+  <si>
+    <t>Firmware Update</t>
+  </si>
+  <si>
+    <t>2019-03-04 17:49:14</t>
+  </si>
+  <si>
+    <t>Radio &amp; Sound Issues</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>#JTC00000967</t>
+  </si>
+  <si>
+    <t>Cable Replacement</t>
+  </si>
+  <si>
+    <t>2019-03-04 18:27:42</t>
+  </si>
+  <si>
+    <t>Audio Cable for Student 1</t>
+  </si>
+  <si>
+    <t>Frayed Cable</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware ASTi Audio Cable</t>
+  </si>
+  <si>
+    <t>ASTi Audio Cable</t>
+  </si>
+  <si>
+    <t>#JTC00000968</t>
+  </si>
+  <si>
+    <t>Equipment arrival</t>
+  </si>
+  <si>
+    <t>2019-03-05 12:30:39</t>
+  </si>
+  <si>
+    <t>Phone call inbound</t>
+  </si>
+  <si>
+    <t>IA Equipment Arrival Notification</t>
+  </si>
+  <si>
+    <t>2019-03-05</t>
+  </si>
+  <si>
+    <t>#JTC00000969</t>
+  </si>
+  <si>
+    <t>Task Scheduler and GPO Update</t>
+  </si>
+  <si>
+    <t>2019-03-05 16:25:10</t>
+  </si>
+  <si>
+    <t>Image inconsistencies on MVP</t>
+  </si>
+  <si>
+    <t>Duplicate Discover Instance</t>
+  </si>
+  <si>
+    <t>#JTC00000970</t>
+  </si>
+  <si>
+    <t>Reset surround on all IG's</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:35:20</t>
+  </si>
+  <si>
+    <t>Voicemail</t>
+  </si>
+  <si>
+    <t>Dome Resolution Dropped</t>
+  </si>
+  <si>
+    <t>Surround settings dropped</t>
+  </si>
+  <si>
+    <t>#JTC00000971</t>
+  </si>
+  <si>
+    <t>2019-03-05 19:36:30</t>
+  </si>
+  <si>
+    <t>Systems 15, 16, 17 have old AAJTS display cables</t>
+  </si>
+  <si>
+    <t>#JTC00000972</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:40:32</t>
+  </si>
+  <si>
+    <t>RP Station INOP on NATO Secret Drives</t>
+  </si>
+  <si>
+    <t>2019-03-06</t>
+  </si>
+  <si>
+    <t>#JTC00000973</t>
+  </si>
+  <si>
+    <t>STTS</t>
+  </si>
+  <si>
+    <t>Ordered/replaced mini-DP cable</t>
+  </si>
+  <si>
+    <t>2019-03-06 16:16:47</t>
+  </si>
+  <si>
+    <t>Student Station 1 will not produce an image through tablet; bad mini-DP cable and extender</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware USB Cable</t>
+  </si>
+  <si>
+    <t>USB Cable</t>
+  </si>
+  <si>
+    <t>#JTC00000974</t>
+  </si>
+  <si>
+    <t>Activated Discover</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:58:58</t>
+  </si>
+  <si>
+    <t>Discover Crashed - MVP Unresponsive</t>
+  </si>
+  <si>
+    <t>Discover Crashed</t>
+  </si>
+  <si>
+    <t>2019-03-07</t>
+  </si>
+  <si>
+    <t>#JTC00000975</t>
+  </si>
+  <si>
+    <t>Replace M4</t>
+  </si>
+  <si>
+    <t>2019-03-07 16:38:28</t>
+  </si>
+  <si>
+    <t>Runaway M-4 Carbine #1; device fires autonomously--need a replacement and repairs on faulty device</t>
+  </si>
+  <si>
+    <t>Trigger pressure sensor is presumed to be faulty</t>
+  </si>
+  <si>
+    <t>#JTC00000976</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>2019-03-08 12:44:45</t>
+  </si>
+  <si>
+    <t>EME Server will not shut down</t>
+  </si>
+  <si>
+    <t>2019-03-08</t>
+  </si>
+  <si>
+    <t>#JTC00000977</t>
+  </si>
+  <si>
+    <t>Manually Shut Down Asti</t>
+  </si>
+  <si>
+    <t>2019-03-08 16:53:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator having trouble with system fully shutting down. </t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>#JTC00000978</t>
+  </si>
+  <si>
+    <t>Reset NTP Server Affiliation and Time Value</t>
+  </si>
+  <si>
+    <t>2019-03-12 14:26:00</t>
+  </si>
+  <si>
+    <t>NAS Synchronization Issues</t>
+  </si>
+  <si>
+    <t>Time Synchronization</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Network Attached Storage (NAS)</t>
+  </si>
+  <si>
+    <t>Network Attached Storage (NAS)</t>
+  </si>
+  <si>
+    <t>#JTC00000979</t>
+  </si>
+  <si>
+    <t>2019-03-13 05:01:07</t>
+  </si>
+  <si>
+    <t>black dot in the visual of ranger 1</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Ranger 47</t>
+  </si>
+  <si>
+    <t>Ranger 47</t>
+  </si>
+  <si>
+    <t>#JTC00000980</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:11:23</t>
+  </si>
+  <si>
+    <t>MACE Detonation Tool Sound - Faulty Sound Mapping</t>
+  </si>
+  <si>
+    <t>#JTC00000981</t>
+  </si>
+  <si>
+    <t>2019-03-14 12:08:12</t>
+  </si>
+  <si>
+    <t>MVP VRSG shutting down</t>
+  </si>
+  <si>
+    <t>2019-03-14</t>
+  </si>
+  <si>
+    <t>#JTC00000982</t>
+  </si>
+  <si>
+    <t>Use Admin Creds</t>
+  </si>
+  <si>
+    <t>2019-03-14 12:11:20</t>
+  </si>
+  <si>
+    <t>Scenario Editor not opening.</t>
+  </si>
+  <si>
+    <t>VRSG Scenario Editor issues</t>
+  </si>
+  <si>
+    <t>#JTC00000983</t>
+  </si>
+  <si>
+    <t>2019-03-14 12:20:55</t>
+  </si>
+  <si>
+    <t>Physical Security</t>
+  </si>
+  <si>
+    <t>#JTC00000984</t>
+  </si>
+  <si>
+    <t>2019-03-14 12:51:28</t>
+  </si>
+  <si>
+    <t>Rover Feed at Student 2 Station</t>
+  </si>
+  <si>
+    <t>#JTC00000985</t>
+  </si>
+  <si>
+    <t>2019-03-14 15:22:54</t>
+  </si>
+  <si>
+    <t>Projector 7 - Failure</t>
+  </si>
+  <si>
+    <t>#JTC00000986</t>
+  </si>
+  <si>
+    <t>2019-03-14 15:26:45</t>
+  </si>
+  <si>
+    <t>Projector 8 - Failure</t>
+  </si>
+  <si>
+    <t>#JTC00000987</t>
+  </si>
+  <si>
+    <t>Returned screen resolution to 1920x1080</t>
+  </si>
+  <si>
+    <t>2019-03-14 16:52:15</t>
+  </si>
+  <si>
+    <t>RP-PC Display Issues</t>
+  </si>
+  <si>
+    <t>Screen resolution changed to sub-optimal setting</t>
+  </si>
+  <si>
+    <t>#JTC00000989</t>
+  </si>
+  <si>
+    <t>Screen patched by IDSI</t>
+  </si>
+  <si>
+    <t>2019-03-14 17:40:44</t>
+  </si>
+  <si>
+    <t>Torn Screen in the Dome</t>
+  </si>
+  <si>
+    <t>Tear in Dome Screen</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Peripheral (Mouse/Keyboard/Desklamp)</t>
+  </si>
+  <si>
+    <t>Peripheral (Mouse/Keyboard/Desklamp)</t>
+  </si>
+  <si>
+    <t>#JTC00000990</t>
+  </si>
+  <si>
+    <t>Manual addition of Korea terrain entry</t>
+  </si>
+  <si>
+    <t>2019-03-14 19:18:19</t>
+  </si>
+  <si>
+    <t>VRSG Terrain Inquiry and Configuration Guidance</t>
+  </si>
+  <si>
+    <t>Configuration Deficiency - Terrain Search Path</t>
+  </si>
+  <si>
+    <t>#JTC00000991</t>
+  </si>
+  <si>
+    <t>2019-03-14 20:32:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROVER feed  </t>
+  </si>
+  <si>
+    <t>['No']</t>
+  </si>
+  <si>
+    <t>#JTC00000992</t>
+  </si>
+  <si>
+    <t>Monitor Replacement</t>
+  </si>
+  <si>
+    <t>2019-03-15 16:29:08</t>
+  </si>
+  <si>
+    <t>Role Player Monitor</t>
+  </si>
+  <si>
+    <t>RP-PC Monitor Cracked</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Monitor</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>#JTC00000993</t>
+  </si>
+  <si>
+    <t>2019-03-18 15:37:56</t>
+  </si>
+  <si>
+    <t>DAT Switch exhibits abnormal behavior - failure possible</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>#JTC00000994</t>
+  </si>
+  <si>
+    <t>17 STS</t>
+  </si>
+  <si>
+    <t>input correct site ID into the "client mappings' area of the Asti Server</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:29:25</t>
+  </si>
+  <si>
+    <t>No sound in the Dome / Student 3 comes up with radio not on the screen</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>#JTC00000995</t>
+  </si>
+  <si>
+    <t>Permission modification</t>
+  </si>
+  <si>
+    <t>2019-03-19 16:00:58</t>
+  </si>
+  <si>
+    <t>Error when switching terrain</t>
+  </si>
+  <si>
+    <t>#JTC00000996</t>
+  </si>
+  <si>
+    <t>Merge with #JTC00000997</t>
+  </si>
+  <si>
+    <t>2019-03-19 17:58:57</t>
+  </si>
+  <si>
+    <t>Student 1  /  148 won't transmit</t>
+  </si>
+  <si>
+    <t>#JTC00000997</t>
+  </si>
+  <si>
+    <t>Operator toggled radios to active status</t>
+  </si>
+  <si>
+    <t>2019-03-19 20:27:41</t>
+  </si>
+  <si>
+    <t>Student radio issues</t>
+  </si>
+  <si>
+    <t>Incorrect settings introduced by operator</t>
+  </si>
+  <si>
+    <t>#JTC00000998</t>
+  </si>
+  <si>
+    <t>Configuration Value Mismatch</t>
+  </si>
+  <si>
+    <t>2019-03-19 23:42:52</t>
+  </si>
+  <si>
+    <t>DOC Dome Hud</t>
+  </si>
+  <si>
+    <t>#JTC00000999</t>
+  </si>
+  <si>
+    <t>Exercise ID Synchronization</t>
+  </si>
+  <si>
+    <t>2019-03-19 23:43:23</t>
+  </si>
+  <si>
+    <t>Projector shut down</t>
+  </si>
+  <si>
+    <t>Mismatched Configuration Values</t>
+  </si>
+  <si>
+    <t>#JTC00001000</t>
+  </si>
+  <si>
+    <t>2019-03-20 15:50:59</t>
+  </si>
+  <si>
+    <t>FW: Issues with the DOME</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>#JTC00001001</t>
+  </si>
+  <si>
+    <t>Swapped GPU with EME-Server</t>
+  </si>
+  <si>
+    <t>2019-03-26 19:36:00</t>
+  </si>
+  <si>
+    <t>IG - 8 GPU critical failure</t>
+  </si>
+  <si>
+    <t>GPU Failure on IG 8. Swapped with EME-Server for temp fix.  Need new GPU for EME-Server</t>
+  </si>
+  <si>
+    <t>#JTC00001002</t>
+  </si>
+  <si>
+    <t>explained the process to solve both issues</t>
+  </si>
+  <si>
+    <t>2019-03-26 19:39:51</t>
+  </si>
+  <si>
+    <t>Question concerning volume in the dome and boresighting the Rangers</t>
+  </si>
+  <si>
+    <t>#JTC00001003</t>
+  </si>
+  <si>
+    <t>TSSC determine correct DIScord settings for Upgrade 2</t>
+  </si>
+  <si>
+    <t>2019-03-26 19:44:32</t>
+  </si>
+  <si>
+    <t>DIScord Settings no Longer Function with Upgrade 2</t>
+  </si>
+  <si>
+    <t>DIScord no longer works with Upgrade 2</t>
+  </si>
+  <si>
+    <t>#JTC00001004</t>
+  </si>
+  <si>
+    <t>Turn down channels on amplifier</t>
+  </si>
+  <si>
+    <t>2019-03-26 20:18:41</t>
+  </si>
+  <si>
+    <t>Sound system creating crackling and feedback from speakers</t>
+  </si>
+  <si>
+    <t>Sounds creating "crackling"</t>
+  </si>
+  <si>
+    <t>#JTC00001006</t>
+  </si>
+  <si>
+    <t>2019-03-27 19:25:15</t>
+  </si>
+  <si>
+    <t>Multiple crashes during a DMO event</t>
+  </si>
+  <si>
+    <t>2019-03-27</t>
+  </si>
+  <si>
+    <t>#JTC00001007</t>
+  </si>
+  <si>
+    <t>Told Sim operator it could be sent overnight if needed</t>
+  </si>
+  <si>
+    <t>2019-03-27 19:42:32</t>
+  </si>
+  <si>
+    <t>Looking for new terrain data information</t>
+  </si>
+  <si>
+    <t>Wanted to know how fast they could get Terrain once the 1067 was approved</t>
+  </si>
+  <si>
+    <t>#JTC00001008</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:27:03</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>#JTC00001009</t>
+  </si>
+  <si>
+    <t>2019-03-28 18:21:25</t>
+  </si>
+  <si>
+    <t>Touch capability non-functional on top MVP monitor</t>
+  </si>
+  <si>
+    <t>MVP Top Monitor Touchscreen Capability non-functional</t>
+  </si>
+  <si>
+    <t>#JTC00001011</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:55:15</t>
+  </si>
+  <si>
+    <t>EME Server will not shut down #JTC0000010</t>
+  </si>
+  <si>
+    <t>#JTC00001012</t>
+  </si>
+  <si>
+    <t>Changed device settings for mouse/keyboard to not wake PC up</t>
+  </si>
+  <si>
+    <t>2019-03-29 15:30:21</t>
+  </si>
+  <si>
+    <t>IOS turns on by itself</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware IOS PC</t>
+  </si>
+  <si>
+    <t>IOS PC</t>
+  </si>
+  <si>
+    <t>#JTC00001013</t>
+  </si>
+  <si>
+    <t>2019-03-29 19:44:51</t>
+  </si>
+  <si>
+    <t>Runaway M-4 Carbine #2; device fires autonomously--repairs needed</t>
+  </si>
+  <si>
+    <t>Brian's 2nd M4 is now faulty and needs repairs. Will submit FR report</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +2634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,33 +2916,33 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1556,25 +2951,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1583,10 +2978,10 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
         <v>49</v>
@@ -1597,34 +2992,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1636,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
         <v>49</v>
@@ -1647,34 +3042,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1683,10 +3078,10 @@
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
         <v>49</v>
@@ -1697,34 +3092,34 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1736,7 +3131,7 @@
         <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
         <v>49</v>
@@ -1747,34 +3142,34 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1783,10 +3178,10 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
         <v>49</v>
@@ -1797,34 +3192,34 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1833,10 +3228,10 @@
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
         <v>49</v>
@@ -1847,7 +3242,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -1856,25 +3251,25 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1883,10 +3278,10 @@
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
         <v>49</v>
@@ -1897,34 +3292,34 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1936,7 +3331,7 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
         <v>49</v>
@@ -1947,34 +3342,34 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1997,34 +3392,34 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -2036,7 +3431,7 @@
         <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
         <v>49</v>
@@ -2047,34 +3442,34 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -2086,7 +3481,7 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
         <v>49</v>
@@ -2097,7 +3492,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -2106,25 +3501,25 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -2133,10 +3528,10 @@
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O18" t="s">
         <v>49</v>
@@ -2147,7 +3542,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -2156,25 +3551,25 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -2183,10 +3578,10 @@
         <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O19" t="s">
         <v>49</v>
@@ -2197,34 +3592,34 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -2236,7 +3631,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O20" t="s">
         <v>49</v>
@@ -2247,34 +3642,34 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2286,7 +3681,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
         <v>49</v>
@@ -2297,52 +3692,52 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
         <v>120</v>
       </c>
-      <c r="J22" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" t="s">
-        <v>55</v>
-      </c>
       <c r="O22" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2386,13 +3781,13 @@
         <v>128</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2403,16 +3798,16 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
         <v>132</v>
@@ -2453,28 +3848,28 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
         <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>138</v>
       </c>
       <c r="K25" t="s">
         <v>47</v>
@@ -2483,7 +3878,7 @@
         <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N25" t="s">
         <v>134</v>
@@ -2497,22 +3892,22 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
         <v>140</v>
@@ -2533,10 +3928,10 @@
         <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
         <v>49</v>
@@ -2547,34 +3942,34 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
         <v>144</v>
-      </c>
-      <c r="H27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>145</v>
       </c>
       <c r="K27" t="s">
         <v>47</v>
@@ -2586,7 +3981,7 @@
         <v>42</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
         <v>49</v>
@@ -2609,7 +4004,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -2636,7 +4031,7 @@
         <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s">
         <v>49</v>
@@ -2659,10 +4054,10 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>150</v>
@@ -2686,7 +4081,7 @@
         <v>42</v>
       </c>
       <c r="N29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s">
         <v>49</v>
@@ -2709,7 +4104,7 @@
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
@@ -2756,13 +4151,13 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>157</v>
@@ -2783,10 +4178,10 @@
         <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O31" t="s">
         <v>49</v>
@@ -2797,7 +4192,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -2806,25 +4201,25 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
         <v>161</v>
-      </c>
-      <c r="H32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>162</v>
       </c>
       <c r="K32" t="s">
         <v>47</v>
@@ -2833,10 +4228,10 @@
         <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O32" t="s">
         <v>49</v>
@@ -2859,10 +4254,10 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
         <v>164</v>
@@ -2886,7 +4281,7 @@
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O33" t="s">
         <v>49</v>
@@ -2903,16 +4298,16 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
         <v>167</v>
@@ -2936,7 +4331,7 @@
         <v>42</v>
       </c>
       <c r="N34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O34" t="s">
         <v>49</v>
@@ -2953,16 +4348,16 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
         <v>170</v>
@@ -2986,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="N35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O35" t="s">
         <v>49</v>
@@ -3009,22 +4404,22 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K36" t="s">
         <v>47</v>
@@ -3036,7 +4431,7 @@
         <v>42</v>
       </c>
       <c r="N36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O36" t="s">
         <v>49</v>
@@ -3047,34 +4442,34 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s">
         <v>47</v>
@@ -3086,7 +4481,7 @@
         <v>42</v>
       </c>
       <c r="N37" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O37" t="s">
         <v>49</v>
@@ -3097,34 +4492,34 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
         <v>47</v>
@@ -3133,10 +4528,10 @@
         <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N38" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O38" t="s">
         <v>49</v>
@@ -3147,7 +4542,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -3156,25 +4551,25 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K39" t="s">
         <v>47</v>
@@ -3183,10 +4578,10 @@
         <v>21</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O39" t="s">
         <v>49</v>
@@ -3197,7 +4592,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -3209,22 +4604,22 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K40" t="s">
         <v>47</v>
@@ -3236,7 +4631,7 @@
         <v>42</v>
       </c>
       <c r="N40" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O40" t="s">
         <v>49</v>
@@ -3247,7 +4642,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -3259,22 +4654,22 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s">
         <v>47</v>
@@ -3286,7 +4681,7 @@
         <v>42</v>
       </c>
       <c r="N41" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O41" t="s">
         <v>49</v>
@@ -3297,7 +4692,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -3309,22 +4704,22 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s">
         <v>47</v>
@@ -3336,7 +4731,7 @@
         <v>42</v>
       </c>
       <c r="N42" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O42" t="s">
         <v>49</v>
@@ -3353,16 +4748,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
         <v>199</v>
@@ -3386,7 +4781,7 @@
         <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O43" t="s">
         <v>49</v>
@@ -3436,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="N44" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O44" t="s">
         <v>49</v>
@@ -3453,16 +4848,16 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
         <v>205</v>
@@ -3486,7 +4881,7 @@
         <v>19</v>
       </c>
       <c r="N45" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O45" t="s">
         <v>49</v>
@@ -3509,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3536,7 +4931,7 @@
         <v>19</v>
       </c>
       <c r="N46" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O46" t="s">
         <v>49</v>
@@ -3553,16 +4948,16 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
         <v>211</v>
@@ -3659,10 +5054,10 @@
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
         <v>218</v>
@@ -3709,7 +5104,7 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3759,7 +5154,7 @@
         <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -3809,7 +5204,7 @@
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -3886,7 +5281,7 @@
         <v>42</v>
       </c>
       <c r="N53" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="O53" t="s">
         <v>49</v>
@@ -3897,7 +5292,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
@@ -3909,22 +5304,22 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="G54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K54" t="s">
         <v>47</v>
@@ -3936,7 +5331,7 @@
         <v>42</v>
       </c>
       <c r="N54" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O54" t="s">
         <v>49</v>
@@ -3947,7 +5342,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -3956,25 +5351,25 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K55" t="s">
         <v>47</v>
@@ -3983,10 +5378,10 @@
         <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O55" t="s">
         <v>49</v>
@@ -3997,7 +5392,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -4006,25 +5401,25 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
         <v>242</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
         <v>243</v>
-      </c>
-      <c r="H56" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>244</v>
       </c>
       <c r="K56" t="s">
         <v>47</v>
@@ -4033,10 +5428,10 @@
         <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N56" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="O56" t="s">
         <v>49</v>
@@ -4086,7 +5481,7 @@
         <v>19</v>
       </c>
       <c r="N57" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O57" t="s">
         <v>49</v>
@@ -4103,16 +5498,16 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
         <v>249</v>
@@ -4136,7 +5531,7 @@
         <v>42</v>
       </c>
       <c r="N58" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s">
         <v>49</v>
@@ -4147,34 +5542,34 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
+        <v>252</v>
+      </c>
+      <c r="H59" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
         <v>253</v>
-      </c>
-      <c r="H59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>254</v>
       </c>
       <c r="K59" t="s">
         <v>47</v>
@@ -4186,7 +5581,7 @@
         <v>42</v>
       </c>
       <c r="N59" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O59" t="s">
         <v>49</v>
@@ -4203,13 +5598,13 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
         <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
         <v>21</v>
@@ -4227,7 +5622,7 @@
         <v>258</v>
       </c>
       <c r="K60" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
         <v>21</v>
@@ -4236,7 +5631,7 @@
         <v>256</v>
       </c>
       <c r="N60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O60" t="s">
         <v>259</v>
@@ -4259,10 +5654,10 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
         <v>262</v>
@@ -4286,7 +5681,7 @@
         <v>42</v>
       </c>
       <c r="N61" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O61" t="s">
         <v>49</v>
@@ -4303,16 +5698,16 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
         <v>265</v>
@@ -4333,7 +5728,7 @@
         <v>21</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N62" t="s">
         <v>267</v>
@@ -4353,16 +5748,16 @@
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
         <v>269</v>
@@ -4383,7 +5778,7 @@
         <v>21</v>
       </c>
       <c r="M63" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N63" t="s">
         <v>271</v>
@@ -4400,16 +5795,16 @@
         <v>272</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
         <v>273</v>
@@ -4421,78 +5816,78 @@
         <v>274</v>
       </c>
       <c r="I64" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s">
         <v>275</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s">
         <v>276</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N64" t="s">
         <v>277</v>
       </c>
       <c r="O64" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="P64" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I65" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="L65" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O65" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="P65" t="s">
-        <v>285</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4543,6 +5938,4706 @@
       </c>
       <c r="P66" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>297</v>
+      </c>
+      <c r="K67" t="s">
+        <v>234</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>298</v>
+      </c>
+      <c r="O67" t="s">
+        <v>293</v>
+      </c>
+      <c r="P67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>302</v>
+      </c>
+      <c r="H68" t="s">
+        <v>302</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>303</v>
+      </c>
+      <c r="K68" t="s">
+        <v>304</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>305</v>
+      </c>
+      <c r="O68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>256</v>
+      </c>
+      <c r="N69" t="s">
+        <v>309</v>
+      </c>
+      <c r="O69" t="s">
+        <v>310</v>
+      </c>
+      <c r="P69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" t="s">
+        <v>314</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>315</v>
+      </c>
+      <c r="K70" t="s">
+        <v>316</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" t="s">
+        <v>256</v>
+      </c>
+      <c r="N70" t="s">
+        <v>317</v>
+      </c>
+      <c r="O70" t="s">
+        <v>318</v>
+      </c>
+      <c r="P70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>321</v>
+      </c>
+      <c r="H71" t="s">
+        <v>321</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>322</v>
+      </c>
+      <c r="K71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" t="s">
+        <v>323</v>
+      </c>
+      <c r="O71" t="s">
+        <v>324</v>
+      </c>
+      <c r="P71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>328</v>
+      </c>
+      <c r="K72" t="s">
+        <v>72</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="s">
+        <v>256</v>
+      </c>
+      <c r="N72" t="s">
+        <v>329</v>
+      </c>
+      <c r="O72" t="s">
+        <v>310</v>
+      </c>
+      <c r="P72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>332</v>
+      </c>
+      <c r="K73" t="s">
+        <v>189</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
+        <v>333</v>
+      </c>
+      <c r="O73" t="s">
+        <v>278</v>
+      </c>
+      <c r="P73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" t="s">
+        <v>333</v>
+      </c>
+      <c r="O74" t="s">
+        <v>278</v>
+      </c>
+      <c r="P74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>337</v>
+      </c>
+      <c r="H75" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>338</v>
+      </c>
+      <c r="K75" t="s">
+        <v>72</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>256</v>
+      </c>
+      <c r="N75" t="s">
+        <v>339</v>
+      </c>
+      <c r="O75" t="s">
+        <v>340</v>
+      </c>
+      <c r="P75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>343</v>
+      </c>
+      <c r="H76" t="s">
+        <v>343</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>344</v>
+      </c>
+      <c r="K76" t="s">
+        <v>345</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
+        <v>346</v>
+      </c>
+      <c r="O76" t="s">
+        <v>293</v>
+      </c>
+      <c r="P76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>348</v>
+      </c>
+      <c r="H77" t="s">
+        <v>348</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>349</v>
+      </c>
+      <c r="K77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
+        <v>256</v>
+      </c>
+      <c r="N77" t="s">
+        <v>350</v>
+      </c>
+      <c r="O77" t="s">
+        <v>351</v>
+      </c>
+      <c r="P77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" t="s">
+        <v>354</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>355</v>
+      </c>
+      <c r="K78" t="s">
+        <v>72</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" t="s">
+        <v>256</v>
+      </c>
+      <c r="N78" t="s">
+        <v>356</v>
+      </c>
+      <c r="O78" t="s">
+        <v>278</v>
+      </c>
+      <c r="P78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>357</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>358</v>
+      </c>
+      <c r="H79" t="s">
+        <v>358</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>359</v>
+      </c>
+      <c r="K79" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" t="s">
+        <v>360</v>
+      </c>
+      <c r="O79" t="s">
+        <v>278</v>
+      </c>
+      <c r="P79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>361</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" t="s">
+        <v>362</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>363</v>
+      </c>
+      <c r="K80" t="s">
+        <v>72</v>
+      </c>
+      <c r="L80" t="s">
+        <v>364</v>
+      </c>
+      <c r="M80" t="s">
+        <v>256</v>
+      </c>
+      <c r="N80" t="s">
+        <v>365</v>
+      </c>
+      <c r="O80" t="s">
+        <v>366</v>
+      </c>
+      <c r="P80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81" t="s">
+        <v>369</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>370</v>
+      </c>
+      <c r="K81" t="s">
+        <v>189</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" t="s">
+        <v>256</v>
+      </c>
+      <c r="N81" t="s">
+        <v>371</v>
+      </c>
+      <c r="O81" t="s">
+        <v>278</v>
+      </c>
+      <c r="P81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>373</v>
+      </c>
+      <c r="H82" t="s">
+        <v>373</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>374</v>
+      </c>
+      <c r="K82" t="s">
+        <v>174</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" t="s">
+        <v>256</v>
+      </c>
+      <c r="N82" t="s">
+        <v>375</v>
+      </c>
+      <c r="O82" t="s">
+        <v>351</v>
+      </c>
+      <c r="P82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>377</v>
+      </c>
+      <c r="H83" t="s">
+        <v>377</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>378</v>
+      </c>
+      <c r="K83" t="s">
+        <v>174</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" t="s">
+        <v>256</v>
+      </c>
+      <c r="N83" t="s">
+        <v>379</v>
+      </c>
+      <c r="O83" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>380</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>381</v>
+      </c>
+      <c r="H84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>382</v>
+      </c>
+      <c r="K84" t="s">
+        <v>383</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" t="s">
+        <v>256</v>
+      </c>
+      <c r="N84" t="s">
+        <v>384</v>
+      </c>
+      <c r="O84" t="s">
+        <v>385</v>
+      </c>
+      <c r="P84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>389</v>
+      </c>
+      <c r="H85" t="s">
+        <v>389</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>390</v>
+      </c>
+      <c r="K85" t="s">
+        <v>391</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" t="s">
+        <v>392</v>
+      </c>
+      <c r="O85" t="s">
+        <v>324</v>
+      </c>
+      <c r="P85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>394</v>
+      </c>
+      <c r="H86" t="s">
+        <v>394</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>395</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>396</v>
+      </c>
+      <c r="M86" t="s">
+        <v>256</v>
+      </c>
+      <c r="N86" t="s">
+        <v>397</v>
+      </c>
+      <c r="O86" t="s">
+        <v>366</v>
+      </c>
+      <c r="P86" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>398</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>399</v>
+      </c>
+      <c r="H87" t="s">
+        <v>399</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>400</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" t="s">
+        <v>401</v>
+      </c>
+      <c r="O87" t="s">
+        <v>385</v>
+      </c>
+      <c r="P87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" t="s">
+        <v>300</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>403</v>
+      </c>
+      <c r="H88" t="s">
+        <v>403</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>404</v>
+      </c>
+      <c r="K88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" t="s">
+        <v>256</v>
+      </c>
+      <c r="N88" t="s">
+        <v>401</v>
+      </c>
+      <c r="O88" t="s">
+        <v>259</v>
+      </c>
+      <c r="P88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>406</v>
+      </c>
+      <c r="H89" t="s">
+        <v>406</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>407</v>
+      </c>
+      <c r="K89" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" t="s">
+        <v>256</v>
+      </c>
+      <c r="N89" t="s">
+        <v>401</v>
+      </c>
+      <c r="O89" t="s">
+        <v>278</v>
+      </c>
+      <c r="P89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" t="s">
+        <v>388</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>409</v>
+      </c>
+      <c r="H90" t="s">
+        <v>409</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>410</v>
+      </c>
+      <c r="K90" t="s">
+        <v>391</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" t="s">
+        <v>256</v>
+      </c>
+      <c r="N90" t="s">
+        <v>392</v>
+      </c>
+      <c r="O90" t="s">
+        <v>411</v>
+      </c>
+      <c r="P90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>413</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" t="s">
+        <v>414</v>
+      </c>
+      <c r="F91" t="s">
+        <v>415</v>
+      </c>
+      <c r="G91" t="s">
+        <v>416</v>
+      </c>
+      <c r="H91" t="s">
+        <v>416</v>
+      </c>
+      <c r="I91" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" t="s">
+        <v>417</v>
+      </c>
+      <c r="K91" t="s">
+        <v>418</v>
+      </c>
+      <c r="L91" t="s">
+        <v>419</v>
+      </c>
+      <c r="M91" t="s">
+        <v>287</v>
+      </c>
+      <c r="N91" t="s">
+        <v>420</v>
+      </c>
+      <c r="O91" t="s">
+        <v>421</v>
+      </c>
+      <c r="P91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>424</v>
+      </c>
+      <c r="H92" t="s">
+        <v>424</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>425</v>
+      </c>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" t="s">
+        <v>29</v>
+      </c>
+      <c r="N92" t="s">
+        <v>426</v>
+      </c>
+      <c r="O92" t="s">
+        <v>324</v>
+      </c>
+      <c r="P92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>427</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>428</v>
+      </c>
+      <c r="H93" t="s">
+        <v>428</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>429</v>
+      </c>
+      <c r="K93" t="s">
+        <v>345</v>
+      </c>
+      <c r="L93" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" t="s">
+        <v>128</v>
+      </c>
+      <c r="N93" t="s">
+        <v>426</v>
+      </c>
+      <c r="O93" t="s">
+        <v>278</v>
+      </c>
+      <c r="P93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>431</v>
+      </c>
+      <c r="G94" t="s">
+        <v>432</v>
+      </c>
+      <c r="H94" t="s">
+        <v>432</v>
+      </c>
+      <c r="I94" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" t="s">
+        <v>433</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>434</v>
+      </c>
+      <c r="M94" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" t="s">
+        <v>435</v>
+      </c>
+      <c r="O94" t="s">
+        <v>436</v>
+      </c>
+      <c r="P94" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>438</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>439</v>
+      </c>
+      <c r="H95" t="s">
+        <v>439</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>440</v>
+      </c>
+      <c r="K95" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>435</v>
+      </c>
+      <c r="O95" t="s">
+        <v>259</v>
+      </c>
+      <c r="P95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" t="s">
+        <v>442</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>443</v>
+      </c>
+      <c r="H96" t="s">
+        <v>443</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>444</v>
+      </c>
+      <c r="K96" t="s">
+        <v>445</v>
+      </c>
+      <c r="L96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" t="s">
+        <v>29</v>
+      </c>
+      <c r="N96" t="s">
+        <v>446</v>
+      </c>
+      <c r="O96" t="s">
+        <v>411</v>
+      </c>
+      <c r="P96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>447</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>448</v>
+      </c>
+      <c r="H97" t="s">
+        <v>448</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>449</v>
+      </c>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="s">
+        <v>256</v>
+      </c>
+      <c r="N97" t="s">
+        <v>277</v>
+      </c>
+      <c r="O97" t="s">
+        <v>450</v>
+      </c>
+      <c r="P97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>451</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" t="s">
+        <v>453</v>
+      </c>
+      <c r="H98" t="s">
+        <v>453</v>
+      </c>
+      <c r="I98" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" t="s">
+        <v>454</v>
+      </c>
+      <c r="K98" t="s">
+        <v>229</v>
+      </c>
+      <c r="L98" t="s">
+        <v>455</v>
+      </c>
+      <c r="M98" t="s">
+        <v>287</v>
+      </c>
+      <c r="N98" t="s">
+        <v>277</v>
+      </c>
+      <c r="O98" t="s">
+        <v>456</v>
+      </c>
+      <c r="P98" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>458</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
+        <v>459</v>
+      </c>
+      <c r="G99" t="s">
+        <v>460</v>
+      </c>
+      <c r="H99" t="s">
+        <v>460</v>
+      </c>
+      <c r="I99" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99" t="s">
+        <v>461</v>
+      </c>
+      <c r="K99" t="s">
+        <v>189</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" t="s">
+        <v>277</v>
+      </c>
+      <c r="O99" t="s">
+        <v>310</v>
+      </c>
+      <c r="P99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>462</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>287</v>
+      </c>
+      <c r="E100" t="s">
+        <v>442</v>
+      </c>
+      <c r="F100" t="s">
+        <v>463</v>
+      </c>
+      <c r="G100" t="s">
+        <v>464</v>
+      </c>
+      <c r="H100" t="s">
+        <v>464</v>
+      </c>
+      <c r="I100" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" t="s">
+        <v>465</v>
+      </c>
+      <c r="K100" t="s">
+        <v>445</v>
+      </c>
+      <c r="L100" t="s">
+        <v>466</v>
+      </c>
+      <c r="M100" t="s">
+        <v>287</v>
+      </c>
+      <c r="N100" t="s">
+        <v>467</v>
+      </c>
+      <c r="O100" t="s">
+        <v>421</v>
+      </c>
+      <c r="P100" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>468</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>469</v>
+      </c>
+      <c r="H101" t="s">
+        <v>469</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>470</v>
+      </c>
+      <c r="K101" t="s">
+        <v>123</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>256</v>
+      </c>
+      <c r="N101" t="s">
+        <v>471</v>
+      </c>
+      <c r="O101" t="s">
+        <v>351</v>
+      </c>
+      <c r="P101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>472</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G102" t="s">
+        <v>474</v>
+      </c>
+      <c r="H102" t="s">
+        <v>474</v>
+      </c>
+      <c r="I102" t="s">
+        <v>475</v>
+      </c>
+      <c r="J102" t="s">
+        <v>476</v>
+      </c>
+      <c r="K102" t="s">
+        <v>89</v>
+      </c>
+      <c r="L102" t="s">
+        <v>477</v>
+      </c>
+      <c r="M102" t="s">
+        <v>29</v>
+      </c>
+      <c r="N102" t="s">
+        <v>478</v>
+      </c>
+      <c r="O102" t="s">
+        <v>436</v>
+      </c>
+      <c r="P102" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>479</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" t="s">
+        <v>287</v>
+      </c>
+      <c r="E103" t="s">
+        <v>442</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>480</v>
+      </c>
+      <c r="H103" t="s">
+        <v>480</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>481</v>
+      </c>
+      <c r="K103" t="s">
+        <v>445</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" t="s">
+        <v>287</v>
+      </c>
+      <c r="N103" t="s">
+        <v>482</v>
+      </c>
+      <c r="O103" t="s">
+        <v>411</v>
+      </c>
+      <c r="P103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>484</v>
+      </c>
+      <c r="H104" t="s">
+        <v>484</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>485</v>
+      </c>
+      <c r="K104" t="s">
+        <v>345</v>
+      </c>
+      <c r="L104" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" t="s">
+        <v>287</v>
+      </c>
+      <c r="N104" t="s">
+        <v>486</v>
+      </c>
+      <c r="O104" t="s">
+        <v>59</v>
+      </c>
+      <c r="P104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s">
+        <v>488</v>
+      </c>
+      <c r="G105" t="s">
+        <v>489</v>
+      </c>
+      <c r="H105" t="s">
+        <v>489</v>
+      </c>
+      <c r="I105" t="s">
+        <v>54</v>
+      </c>
+      <c r="J105" t="s">
+        <v>490</v>
+      </c>
+      <c r="K105" t="s">
+        <v>56</v>
+      </c>
+      <c r="L105" t="s">
+        <v>491</v>
+      </c>
+      <c r="M105" t="s">
+        <v>29</v>
+      </c>
+      <c r="N105" t="s">
+        <v>478</v>
+      </c>
+      <c r="O105" t="s">
+        <v>310</v>
+      </c>
+      <c r="P105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" t="s">
+        <v>493</v>
+      </c>
+      <c r="G106" t="s">
+        <v>494</v>
+      </c>
+      <c r="H106" t="s">
+        <v>494</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>495</v>
+      </c>
+      <c r="K106" t="s">
+        <v>234</v>
+      </c>
+      <c r="L106" t="s">
+        <v>496</v>
+      </c>
+      <c r="M106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" t="s">
+        <v>497</v>
+      </c>
+      <c r="O106" t="s">
+        <v>498</v>
+      </c>
+      <c r="P106" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F107" t="s">
+        <v>501</v>
+      </c>
+      <c r="G107" t="s">
+        <v>502</v>
+      </c>
+      <c r="H107" t="s">
+        <v>502</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>503</v>
+      </c>
+      <c r="K107" t="s">
+        <v>89</v>
+      </c>
+      <c r="L107" t="s">
+        <v>504</v>
+      </c>
+      <c r="M107" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" t="s">
+        <v>497</v>
+      </c>
+      <c r="O107" t="s">
+        <v>324</v>
+      </c>
+      <c r="P107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>506</v>
+      </c>
+      <c r="H108" t="s">
+        <v>506</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>507</v>
+      </c>
+      <c r="K108" t="s">
+        <v>24</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="s">
+        <v>256</v>
+      </c>
+      <c r="N108" t="s">
+        <v>277</v>
+      </c>
+      <c r="O108" t="s">
+        <v>508</v>
+      </c>
+      <c r="P108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>256</v>
+      </c>
+      <c r="E109" t="s">
+        <v>313</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>510</v>
+      </c>
+      <c r="H109" t="s">
+        <v>510</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>511</v>
+      </c>
+      <c r="K109" t="s">
+        <v>47</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="s">
+        <v>256</v>
+      </c>
+      <c r="N109" t="s">
+        <v>497</v>
+      </c>
+      <c r="O109" t="s">
+        <v>49</v>
+      </c>
+      <c r="P109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" t="s">
+        <v>512</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" t="s">
+        <v>513</v>
+      </c>
+      <c r="G110" t="s">
+        <v>514</v>
+      </c>
+      <c r="H110" t="s">
+        <v>514</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>515</v>
+      </c>
+      <c r="K110" t="s">
+        <v>516</v>
+      </c>
+      <c r="L110" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" t="s">
+        <v>497</v>
+      </c>
+      <c r="O110" t="s">
+        <v>436</v>
+      </c>
+      <c r="P110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" t="s">
+        <v>517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>313</v>
+      </c>
+      <c r="F111" t="s">
+        <v>518</v>
+      </c>
+      <c r="G111" t="s">
+        <v>519</v>
+      </c>
+      <c r="H111" t="s">
+        <v>519</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>520</v>
+      </c>
+      <c r="K111" t="s">
+        <v>234</v>
+      </c>
+      <c r="L111" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="s">
+        <v>29</v>
+      </c>
+      <c r="N111" t="s">
+        <v>497</v>
+      </c>
+      <c r="O111" t="s">
+        <v>436</v>
+      </c>
+      <c r="P111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" t="s">
+        <v>521</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" t="s">
+        <v>522</v>
+      </c>
+      <c r="F112" t="s">
+        <v>523</v>
+      </c>
+      <c r="G112" t="s">
+        <v>524</v>
+      </c>
+      <c r="H112" t="s">
+        <v>524</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>525</v>
+      </c>
+      <c r="K112" t="s">
+        <v>516</v>
+      </c>
+      <c r="L112" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" t="s">
+        <v>29</v>
+      </c>
+      <c r="N112" t="s">
+        <v>497</v>
+      </c>
+      <c r="O112" t="s">
+        <v>436</v>
+      </c>
+      <c r="P112" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>526</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>527</v>
+      </c>
+      <c r="H113" t="s">
+        <v>527</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>528</v>
+      </c>
+      <c r="K113" t="s">
+        <v>123</v>
+      </c>
+      <c r="L113" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" t="s">
+        <v>497</v>
+      </c>
+      <c r="O113" t="s">
+        <v>529</v>
+      </c>
+      <c r="P113" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
+        <v>531</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" t="s">
+        <v>532</v>
+      </c>
+      <c r="F114" t="s">
+        <v>533</v>
+      </c>
+      <c r="G114" t="s">
+        <v>534</v>
+      </c>
+      <c r="H114" t="s">
+        <v>534</v>
+      </c>
+      <c r="I114" t="s">
+        <v>475</v>
+      </c>
+      <c r="J114" t="s">
+        <v>535</v>
+      </c>
+      <c r="K114" t="s">
+        <v>536</v>
+      </c>
+      <c r="L114" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" t="s">
+        <v>42</v>
+      </c>
+      <c r="N114" t="s">
+        <v>497</v>
+      </c>
+      <c r="O114" t="s">
+        <v>537</v>
+      </c>
+      <c r="P114" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" t="s">
+        <v>539</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>540</v>
+      </c>
+      <c r="H115" t="s">
+        <v>540</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>541</v>
+      </c>
+      <c r="K115" t="s">
+        <v>72</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" t="s">
+        <v>256</v>
+      </c>
+      <c r="N115" t="s">
+        <v>497</v>
+      </c>
+      <c r="O115" t="s">
+        <v>59</v>
+      </c>
+      <c r="P115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>542</v>
+      </c>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" t="s">
+        <v>543</v>
+      </c>
+      <c r="F116" t="s">
+        <v>544</v>
+      </c>
+      <c r="G116" t="s">
+        <v>545</v>
+      </c>
+      <c r="H116" t="s">
+        <v>545</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>546</v>
+      </c>
+      <c r="K116" t="s">
+        <v>547</v>
+      </c>
+      <c r="L116" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116" t="s">
+        <v>256</v>
+      </c>
+      <c r="N116" t="s">
+        <v>548</v>
+      </c>
+      <c r="O116" t="s">
+        <v>59</v>
+      </c>
+      <c r="P116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>549</v>
+      </c>
+      <c r="B117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" t="s">
+        <v>550</v>
+      </c>
+      <c r="G117" t="s">
+        <v>551</v>
+      </c>
+      <c r="H117" t="s">
+        <v>551</v>
+      </c>
+      <c r="I117" t="s">
+        <v>475</v>
+      </c>
+      <c r="J117" t="s">
+        <v>552</v>
+      </c>
+      <c r="K117" t="s">
+        <v>234</v>
+      </c>
+      <c r="L117" t="s">
+        <v>553</v>
+      </c>
+      <c r="M117" t="s">
+        <v>256</v>
+      </c>
+      <c r="N117" t="s">
+        <v>548</v>
+      </c>
+      <c r="O117" t="s">
+        <v>554</v>
+      </c>
+      <c r="P117" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>556</v>
+      </c>
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" t="s">
+        <v>557</v>
+      </c>
+      <c r="G118" t="s">
+        <v>558</v>
+      </c>
+      <c r="H118" t="s">
+        <v>558</v>
+      </c>
+      <c r="I118" t="s">
+        <v>559</v>
+      </c>
+      <c r="J118" t="s">
+        <v>560</v>
+      </c>
+      <c r="K118" t="s">
+        <v>56</v>
+      </c>
+      <c r="L118" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" t="s">
+        <v>256</v>
+      </c>
+      <c r="N118" t="s">
+        <v>561</v>
+      </c>
+      <c r="O118" t="s">
+        <v>537</v>
+      </c>
+      <c r="P118" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>562</v>
+      </c>
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>256</v>
+      </c>
+      <c r="E119" t="s">
+        <v>543</v>
+      </c>
+      <c r="F119" t="s">
+        <v>563</v>
+      </c>
+      <c r="G119" t="s">
+        <v>564</v>
+      </c>
+      <c r="H119" t="s">
+        <v>564</v>
+      </c>
+      <c r="I119" t="s">
+        <v>475</v>
+      </c>
+      <c r="J119" t="s">
+        <v>565</v>
+      </c>
+      <c r="K119" t="s">
+        <v>547</v>
+      </c>
+      <c r="L119" t="s">
+        <v>566</v>
+      </c>
+      <c r="M119" t="s">
+        <v>256</v>
+      </c>
+      <c r="N119" t="s">
+        <v>561</v>
+      </c>
+      <c r="O119" t="s">
+        <v>366</v>
+      </c>
+      <c r="P119" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+      <c r="E120" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" t="s">
+        <v>568</v>
+      </c>
+      <c r="G120" t="s">
+        <v>569</v>
+      </c>
+      <c r="H120" t="s">
+        <v>569</v>
+      </c>
+      <c r="I120" t="s">
+        <v>570</v>
+      </c>
+      <c r="J120" t="s">
+        <v>571</v>
+      </c>
+      <c r="K120" t="s">
+        <v>316</v>
+      </c>
+      <c r="L120" t="s">
+        <v>572</v>
+      </c>
+      <c r="M120" t="s">
+        <v>256</v>
+      </c>
+      <c r="N120" t="s">
+        <v>561</v>
+      </c>
+      <c r="O120" t="s">
+        <v>318</v>
+      </c>
+      <c r="P120" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>573</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>574</v>
+      </c>
+      <c r="H121" t="s">
+        <v>574</v>
+      </c>
+      <c r="I121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>575</v>
+      </c>
+      <c r="K121" t="s">
+        <v>189</v>
+      </c>
+      <c r="L121" t="s">
+        <v>21</v>
+      </c>
+      <c r="M121" t="s">
+        <v>256</v>
+      </c>
+      <c r="N121" t="s">
+        <v>561</v>
+      </c>
+      <c r="O121" t="s">
+        <v>35</v>
+      </c>
+      <c r="P121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>576</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" t="s">
+        <v>62</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>577</v>
+      </c>
+      <c r="H122" t="s">
+        <v>577</v>
+      </c>
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>578</v>
+      </c>
+      <c r="K122" t="s">
+        <v>63</v>
+      </c>
+      <c r="L122" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" t="s">
+        <v>256</v>
+      </c>
+      <c r="N122" t="s">
+        <v>579</v>
+      </c>
+      <c r="O122" t="s">
+        <v>259</v>
+      </c>
+      <c r="P122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>580</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" t="s">
+        <v>581</v>
+      </c>
+      <c r="F123" t="s">
+        <v>582</v>
+      </c>
+      <c r="G123" t="s">
+        <v>583</v>
+      </c>
+      <c r="H123" t="s">
+        <v>583</v>
+      </c>
+      <c r="I123" t="s">
+        <v>54</v>
+      </c>
+      <c r="J123" t="s">
+        <v>584</v>
+      </c>
+      <c r="K123" t="s">
+        <v>585</v>
+      </c>
+      <c r="L123" t="s">
+        <v>21</v>
+      </c>
+      <c r="M123" t="s">
+        <v>287</v>
+      </c>
+      <c r="N123" t="s">
+        <v>579</v>
+      </c>
+      <c r="O123" t="s">
+        <v>586</v>
+      </c>
+      <c r="P123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>588</v>
+      </c>
+      <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" t="s">
+        <v>313</v>
+      </c>
+      <c r="F124" t="s">
+        <v>589</v>
+      </c>
+      <c r="G124" t="s">
+        <v>590</v>
+      </c>
+      <c r="H124" t="s">
+        <v>590</v>
+      </c>
+      <c r="I124" t="s">
+        <v>570</v>
+      </c>
+      <c r="J124" t="s">
+        <v>591</v>
+      </c>
+      <c r="K124" t="s">
+        <v>316</v>
+      </c>
+      <c r="L124" t="s">
+        <v>592</v>
+      </c>
+      <c r="M124" t="s">
+        <v>256</v>
+      </c>
+      <c r="N124" t="s">
+        <v>593</v>
+      </c>
+      <c r="O124" t="s">
+        <v>366</v>
+      </c>
+      <c r="P124" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>594</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E125" t="s">
+        <v>581</v>
+      </c>
+      <c r="F125" t="s">
+        <v>595</v>
+      </c>
+      <c r="G125" t="s">
+        <v>596</v>
+      </c>
+      <c r="H125" t="s">
+        <v>596</v>
+      </c>
+      <c r="I125" t="s">
+        <v>54</v>
+      </c>
+      <c r="J125" t="s">
+        <v>597</v>
+      </c>
+      <c r="K125" t="s">
+        <v>585</v>
+      </c>
+      <c r="L125" t="s">
+        <v>598</v>
+      </c>
+      <c r="M125" t="s">
+        <v>287</v>
+      </c>
+      <c r="N125" t="s">
+        <v>593</v>
+      </c>
+      <c r="O125" t="s">
+        <v>310</v>
+      </c>
+      <c r="P125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>599</v>
+      </c>
+      <c r="B126" t="s">
+        <v>600</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>256</v>
+      </c>
+      <c r="E126" t="s">
+        <v>233</v>
+      </c>
+      <c r="F126" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" t="s">
+        <v>601</v>
+      </c>
+      <c r="H126" t="s">
+        <v>601</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126" t="s">
+        <v>602</v>
+      </c>
+      <c r="K126" t="s">
+        <v>47</v>
+      </c>
+      <c r="L126" t="s">
+        <v>21</v>
+      </c>
+      <c r="M126" t="s">
+        <v>256</v>
+      </c>
+      <c r="N126" t="s">
+        <v>603</v>
+      </c>
+      <c r="O126" t="s">
+        <v>49</v>
+      </c>
+      <c r="P126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>604</v>
+      </c>
+      <c r="B127" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>313</v>
+      </c>
+      <c r="F127" t="s">
+        <v>605</v>
+      </c>
+      <c r="G127" t="s">
+        <v>606</v>
+      </c>
+      <c r="H127" t="s">
+        <v>606</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>607</v>
+      </c>
+      <c r="K127" t="s">
+        <v>608</v>
+      </c>
+      <c r="L127" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" t="s">
+        <v>19</v>
+      </c>
+      <c r="N127" t="s">
+        <v>603</v>
+      </c>
+      <c r="O127" t="s">
+        <v>59</v>
+      </c>
+      <c r="P127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>609</v>
+      </c>
+      <c r="B128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" t="s">
+        <v>610</v>
+      </c>
+      <c r="G128" t="s">
+        <v>611</v>
+      </c>
+      <c r="H128" t="s">
+        <v>611</v>
+      </c>
+      <c r="I128" t="s">
+        <v>559</v>
+      </c>
+      <c r="J128" t="s">
+        <v>612</v>
+      </c>
+      <c r="K128" t="s">
+        <v>123</v>
+      </c>
+      <c r="L128" t="s">
+        <v>613</v>
+      </c>
+      <c r="M128" t="s">
+        <v>256</v>
+      </c>
+      <c r="N128" t="s">
+        <v>614</v>
+      </c>
+      <c r="O128" t="s">
+        <v>615</v>
+      </c>
+      <c r="P128" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>617</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" t="s">
+        <v>414</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>618</v>
+      </c>
+      <c r="H129" t="s">
+        <v>618</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>619</v>
+      </c>
+      <c r="K129" t="s">
+        <v>418</v>
+      </c>
+      <c r="L129" t="s">
+        <v>21</v>
+      </c>
+      <c r="M129" t="s">
+        <v>256</v>
+      </c>
+      <c r="N129" t="s">
+        <v>620</v>
+      </c>
+      <c r="O129" t="s">
+        <v>621</v>
+      </c>
+      <c r="P129" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" t="s">
+        <v>623</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" t="s">
+        <v>256</v>
+      </c>
+      <c r="E130" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>624</v>
+      </c>
+      <c r="H130" t="s">
+        <v>624</v>
+      </c>
+      <c r="I130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>625</v>
+      </c>
+      <c r="K130" t="s">
+        <v>72</v>
+      </c>
+      <c r="L130" t="s">
+        <v>21</v>
+      </c>
+      <c r="M130" t="s">
+        <v>256</v>
+      </c>
+      <c r="N130" t="s">
+        <v>620</v>
+      </c>
+      <c r="O130" t="s">
+        <v>59</v>
+      </c>
+      <c r="P130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>256</v>
+      </c>
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>627</v>
+      </c>
+      <c r="H131" t="s">
+        <v>627</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>628</v>
+      </c>
+      <c r="K131" t="s">
+        <v>44</v>
+      </c>
+      <c r="L131" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" t="s">
+        <v>256</v>
+      </c>
+      <c r="N131" t="s">
+        <v>629</v>
+      </c>
+      <c r="O131" t="s">
+        <v>278</v>
+      </c>
+      <c r="P131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>630</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s">
+        <v>631</v>
+      </c>
+      <c r="G132" t="s">
+        <v>632</v>
+      </c>
+      <c r="H132" t="s">
+        <v>632</v>
+      </c>
+      <c r="I132" t="s">
+        <v>54</v>
+      </c>
+      <c r="J132" t="s">
+        <v>633</v>
+      </c>
+      <c r="K132" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132" t="s">
+        <v>634</v>
+      </c>
+      <c r="M132" t="s">
+        <v>29</v>
+      </c>
+      <c r="N132" t="s">
+        <v>277</v>
+      </c>
+      <c r="O132" t="s">
+        <v>278</v>
+      </c>
+      <c r="P132" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" t="s">
+        <v>635</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>636</v>
+      </c>
+      <c r="H133" t="s">
+        <v>636</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>637</v>
+      </c>
+      <c r="K133" t="s">
+        <v>44</v>
+      </c>
+      <c r="L133" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" t="s">
+        <v>256</v>
+      </c>
+      <c r="N133" t="s">
+        <v>277</v>
+      </c>
+      <c r="O133" t="s">
+        <v>436</v>
+      </c>
+      <c r="P133" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" t="s">
+        <v>638</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>639</v>
+      </c>
+      <c r="H134" t="s">
+        <v>639</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>640</v>
+      </c>
+      <c r="K134" t="s">
+        <v>44</v>
+      </c>
+      <c r="L134" t="s">
+        <v>21</v>
+      </c>
+      <c r="M134" t="s">
+        <v>256</v>
+      </c>
+      <c r="N134" t="s">
+        <v>629</v>
+      </c>
+      <c r="O134" t="s">
+        <v>351</v>
+      </c>
+      <c r="P134" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" t="s">
+        <v>641</v>
+      </c>
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>256</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>642</v>
+      </c>
+      <c r="H135" t="s">
+        <v>642</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" t="s">
+        <v>643</v>
+      </c>
+      <c r="K135" t="s">
+        <v>304</v>
+      </c>
+      <c r="L135" t="s">
+        <v>21</v>
+      </c>
+      <c r="M135" t="s">
+        <v>256</v>
+      </c>
+      <c r="N135" t="s">
+        <v>629</v>
+      </c>
+      <c r="O135" t="s">
+        <v>411</v>
+      </c>
+      <c r="P135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" t="s">
+        <v>644</v>
+      </c>
+      <c r="B136" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>256</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>645</v>
+      </c>
+      <c r="H136" t="s">
+        <v>645</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>646</v>
+      </c>
+      <c r="K136" t="s">
+        <v>304</v>
+      </c>
+      <c r="L136" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" t="s">
+        <v>256</v>
+      </c>
+      <c r="N136" t="s">
+        <v>629</v>
+      </c>
+      <c r="O136" t="s">
+        <v>411</v>
+      </c>
+      <c r="P136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" t="s">
+        <v>647</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" t="s">
+        <v>256</v>
+      </c>
+      <c r="E137" t="s">
+        <v>313</v>
+      </c>
+      <c r="F137" t="s">
+        <v>648</v>
+      </c>
+      <c r="G137" t="s">
+        <v>649</v>
+      </c>
+      <c r="H137" t="s">
+        <v>649</v>
+      </c>
+      <c r="I137" t="s">
+        <v>559</v>
+      </c>
+      <c r="J137" t="s">
+        <v>650</v>
+      </c>
+      <c r="K137" t="s">
+        <v>585</v>
+      </c>
+      <c r="L137" t="s">
+        <v>651</v>
+      </c>
+      <c r="M137" t="s">
+        <v>256</v>
+      </c>
+      <c r="N137" t="s">
+        <v>629</v>
+      </c>
+      <c r="O137" t="s">
+        <v>498</v>
+      </c>
+      <c r="P137" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" t="s">
+        <v>652</v>
+      </c>
+      <c r="B138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" t="s">
+        <v>51</v>
+      </c>
+      <c r="F138" t="s">
+        <v>653</v>
+      </c>
+      <c r="G138" t="s">
+        <v>654</v>
+      </c>
+      <c r="H138" t="s">
+        <v>654</v>
+      </c>
+      <c r="I138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138" t="s">
+        <v>655</v>
+      </c>
+      <c r="K138" t="s">
+        <v>56</v>
+      </c>
+      <c r="L138" t="s">
+        <v>656</v>
+      </c>
+      <c r="M138" t="s">
+        <v>42</v>
+      </c>
+      <c r="N138" t="s">
+        <v>629</v>
+      </c>
+      <c r="O138" t="s">
+        <v>657</v>
+      </c>
+      <c r="P138" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" t="s">
+        <v>659</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>256</v>
+      </c>
+      <c r="E139" t="s">
+        <v>388</v>
+      </c>
+      <c r="F139" t="s">
+        <v>660</v>
+      </c>
+      <c r="G139" t="s">
+        <v>661</v>
+      </c>
+      <c r="H139" t="s">
+        <v>661</v>
+      </c>
+      <c r="I139" t="s">
+        <v>559</v>
+      </c>
+      <c r="J139" t="s">
+        <v>662</v>
+      </c>
+      <c r="K139" t="s">
+        <v>391</v>
+      </c>
+      <c r="L139" t="s">
+        <v>663</v>
+      </c>
+      <c r="M139" t="s">
+        <v>256</v>
+      </c>
+      <c r="N139" t="s">
+        <v>629</v>
+      </c>
+      <c r="O139" t="s">
+        <v>278</v>
+      </c>
+      <c r="P139" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" t="s">
+        <v>664</v>
+      </c>
+      <c r="B140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>256</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>665</v>
+      </c>
+      <c r="H140" t="s">
+        <v>665</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" t="s">
+        <v>666</v>
+      </c>
+      <c r="K140" t="s">
+        <v>667</v>
+      </c>
+      <c r="L140" t="s">
+        <v>21</v>
+      </c>
+      <c r="M140" t="s">
+        <v>256</v>
+      </c>
+      <c r="N140" t="s">
+        <v>277</v>
+      </c>
+      <c r="O140" t="s">
+        <v>49</v>
+      </c>
+      <c r="P140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" t="s">
+        <v>668</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>256</v>
+      </c>
+      <c r="E141" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s">
+        <v>669</v>
+      </c>
+      <c r="G141" t="s">
+        <v>670</v>
+      </c>
+      <c r="H141" t="s">
+        <v>670</v>
+      </c>
+      <c r="I141" t="s">
+        <v>475</v>
+      </c>
+      <c r="J141" t="s">
+        <v>671</v>
+      </c>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" t="s">
+        <v>672</v>
+      </c>
+      <c r="M141" t="s">
+        <v>256</v>
+      </c>
+      <c r="N141" t="s">
+        <v>673</v>
+      </c>
+      <c r="O141" t="s">
+        <v>674</v>
+      </c>
+      <c r="P141" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" t="s">
+        <v>676</v>
+      </c>
+      <c r="B142" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>256</v>
+      </c>
+      <c r="E142" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" t="s">
+        <v>123</v>
+      </c>
+      <c r="G142" t="s">
+        <v>677</v>
+      </c>
+      <c r="H142" t="s">
+        <v>677</v>
+      </c>
+      <c r="I142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" t="s">
+        <v>678</v>
+      </c>
+      <c r="K142" t="s">
+        <v>667</v>
+      </c>
+      <c r="L142" t="s">
+        <v>21</v>
+      </c>
+      <c r="M142" t="s">
+        <v>256</v>
+      </c>
+      <c r="N142" t="s">
+        <v>679</v>
+      </c>
+      <c r="O142" t="s">
+        <v>49</v>
+      </c>
+      <c r="P142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>680</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>681</v>
+      </c>
+      <c r="F143" t="s">
+        <v>682</v>
+      </c>
+      <c r="G143" t="s">
+        <v>683</v>
+      </c>
+      <c r="H143" t="s">
+        <v>683</v>
+      </c>
+      <c r="I143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>684</v>
+      </c>
+      <c r="K143" t="s">
+        <v>84</v>
+      </c>
+      <c r="L143" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" t="s">
+        <v>685</v>
+      </c>
+      <c r="O143" t="s">
+        <v>59</v>
+      </c>
+      <c r="P143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" t="s">
+        <v>686</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" t="s">
+        <v>581</v>
+      </c>
+      <c r="F144" t="s">
+        <v>687</v>
+      </c>
+      <c r="G144" t="s">
+        <v>688</v>
+      </c>
+      <c r="H144" t="s">
+        <v>688</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" t="s">
+        <v>689</v>
+      </c>
+      <c r="K144" t="s">
+        <v>316</v>
+      </c>
+      <c r="L144" t="s">
+        <v>21</v>
+      </c>
+      <c r="M144" t="s">
+        <v>29</v>
+      </c>
+      <c r="N144" t="s">
+        <v>685</v>
+      </c>
+      <c r="O144" t="s">
+        <v>340</v>
+      </c>
+      <c r="P144" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" t="s">
+        <v>690</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>691</v>
+      </c>
+      <c r="G145" t="s">
+        <v>692</v>
+      </c>
+      <c r="H145" t="s">
+        <v>692</v>
+      </c>
+      <c r="I145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" t="s">
+        <v>693</v>
+      </c>
+      <c r="K145" t="s">
+        <v>24</v>
+      </c>
+      <c r="L145" t="s">
+        <v>21</v>
+      </c>
+      <c r="M145" t="s">
+        <v>256</v>
+      </c>
+      <c r="N145" t="s">
+        <v>685</v>
+      </c>
+      <c r="O145" t="s">
+        <v>59</v>
+      </c>
+      <c r="P145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" t="s">
+        <v>694</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>256</v>
+      </c>
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>695</v>
+      </c>
+      <c r="G146" t="s">
+        <v>696</v>
+      </c>
+      <c r="H146" t="s">
+        <v>696</v>
+      </c>
+      <c r="I146" t="s">
+        <v>559</v>
+      </c>
+      <c r="J146" t="s">
+        <v>697</v>
+      </c>
+      <c r="K146" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" t="s">
+        <v>698</v>
+      </c>
+      <c r="M146" t="s">
+        <v>256</v>
+      </c>
+      <c r="N146" t="s">
+        <v>685</v>
+      </c>
+      <c r="O146" t="s">
+        <v>498</v>
+      </c>
+      <c r="P146" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>699</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" t="s">
+        <v>256</v>
+      </c>
+      <c r="E147" t="s">
+        <v>71</v>
+      </c>
+      <c r="F147" t="s">
+        <v>700</v>
+      </c>
+      <c r="G147" t="s">
+        <v>701</v>
+      </c>
+      <c r="H147" t="s">
+        <v>701</v>
+      </c>
+      <c r="I147" t="s">
+        <v>559</v>
+      </c>
+      <c r="J147" t="s">
+        <v>702</v>
+      </c>
+      <c r="K147" t="s">
+        <v>72</v>
+      </c>
+      <c r="L147" t="s">
+        <v>21</v>
+      </c>
+      <c r="M147" t="s">
+        <v>256</v>
+      </c>
+      <c r="N147" t="s">
+        <v>685</v>
+      </c>
+      <c r="O147" t="s">
+        <v>366</v>
+      </c>
+      <c r="P147" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>703</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" t="s">
+        <v>256</v>
+      </c>
+      <c r="E148" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" t="s">
+        <v>704</v>
+      </c>
+      <c r="G148" t="s">
+        <v>705</v>
+      </c>
+      <c r="H148" t="s">
+        <v>705</v>
+      </c>
+      <c r="I148" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>706</v>
+      </c>
+      <c r="K148" t="s">
+        <v>72</v>
+      </c>
+      <c r="L148" t="s">
+        <v>707</v>
+      </c>
+      <c r="M148" t="s">
+        <v>256</v>
+      </c>
+      <c r="N148" t="s">
+        <v>685</v>
+      </c>
+      <c r="O148" t="s">
+        <v>366</v>
+      </c>
+      <c r="P148" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" t="s">
+        <v>708</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" t="s">
+        <v>256</v>
+      </c>
+      <c r="E149" t="s">
+        <v>522</v>
+      </c>
+      <c r="F149" t="s">
+        <v>516</v>
+      </c>
+      <c r="G149" t="s">
+        <v>709</v>
+      </c>
+      <c r="H149" t="s">
+        <v>709</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" t="s">
+        <v>710</v>
+      </c>
+      <c r="K149" t="s">
+        <v>667</v>
+      </c>
+      <c r="L149" t="s">
+        <v>21</v>
+      </c>
+      <c r="M149" t="s">
+        <v>256</v>
+      </c>
+      <c r="N149" t="s">
+        <v>711</v>
+      </c>
+      <c r="O149" t="s">
+        <v>49</v>
+      </c>
+      <c r="P149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>712</v>
+      </c>
+      <c r="B150" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>256</v>
+      </c>
+      <c r="E150" t="s">
+        <v>388</v>
+      </c>
+      <c r="F150" t="s">
+        <v>713</v>
+      </c>
+      <c r="G150" t="s">
+        <v>714</v>
+      </c>
+      <c r="H150" t="s">
+        <v>714</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" t="s">
+        <v>715</v>
+      </c>
+      <c r="K150" t="s">
+        <v>391</v>
+      </c>
+      <c r="L150" t="s">
+        <v>716</v>
+      </c>
+      <c r="M150" t="s">
+        <v>256</v>
+      </c>
+      <c r="N150" t="s">
+        <v>673</v>
+      </c>
+      <c r="O150" t="s">
+        <v>436</v>
+      </c>
+      <c r="P150" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" t="s">
+        <v>717</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>522</v>
+      </c>
+      <c r="F151" t="s">
+        <v>718</v>
+      </c>
+      <c r="G151" t="s">
+        <v>719</v>
+      </c>
+      <c r="H151" t="s">
+        <v>719</v>
+      </c>
+      <c r="I151" t="s">
+        <v>559</v>
+      </c>
+      <c r="J151" t="s">
+        <v>720</v>
+      </c>
+      <c r="K151" t="s">
+        <v>516</v>
+      </c>
+      <c r="L151" t="s">
+        <v>21</v>
+      </c>
+      <c r="M151" t="s">
+        <v>19</v>
+      </c>
+      <c r="N151" t="s">
+        <v>392</v>
+      </c>
+      <c r="O151" t="s">
+        <v>498</v>
+      </c>
+      <c r="P151" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" t="s">
+        <v>721</v>
+      </c>
+      <c r="B152" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" t="s">
+        <v>256</v>
+      </c>
+      <c r="E152" t="s">
+        <v>388</v>
+      </c>
+      <c r="F152" t="s">
+        <v>722</v>
+      </c>
+      <c r="G152" t="s">
+        <v>723</v>
+      </c>
+      <c r="H152" t="s">
+        <v>723</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" t="s">
+        <v>724</v>
+      </c>
+      <c r="K152" t="s">
+        <v>391</v>
+      </c>
+      <c r="L152" t="s">
+        <v>725</v>
+      </c>
+      <c r="M152" t="s">
+        <v>256</v>
+      </c>
+      <c r="N152" t="s">
+        <v>392</v>
+      </c>
+      <c r="O152" t="s">
+        <v>259</v>
+      </c>
+      <c r="P152" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" t="s">
+        <v>726</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" t="s">
+        <v>522</v>
+      </c>
+      <c r="F153" t="s">
+        <v>727</v>
+      </c>
+      <c r="G153" t="s">
+        <v>728</v>
+      </c>
+      <c r="H153" t="s">
+        <v>728</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" t="s">
+        <v>729</v>
+      </c>
+      <c r="K153" t="s">
+        <v>516</v>
+      </c>
+      <c r="L153" t="s">
+        <v>730</v>
+      </c>
+      <c r="M153" t="s">
+        <v>29</v>
+      </c>
+      <c r="N153" t="s">
+        <v>392</v>
+      </c>
+      <c r="O153" t="s">
+        <v>59</v>
+      </c>
+      <c r="P153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" t="s">
+        <v>731</v>
+      </c>
+      <c r="B154" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" t="s">
+        <v>256</v>
+      </c>
+      <c r="E154" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" t="s">
+        <v>72</v>
+      </c>
+      <c r="G154" t="s">
+        <v>732</v>
+      </c>
+      <c r="H154" t="s">
+        <v>732</v>
+      </c>
+      <c r="I154" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" t="s">
+        <v>733</v>
+      </c>
+      <c r="K154" t="s">
+        <v>667</v>
+      </c>
+      <c r="L154" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" t="s">
+        <v>256</v>
+      </c>
+      <c r="N154" t="s">
+        <v>734</v>
+      </c>
+      <c r="O154" t="s">
+        <v>49</v>
+      </c>
+      <c r="P154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>735</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" t="s">
+        <v>522</v>
+      </c>
+      <c r="F155" t="s">
+        <v>736</v>
+      </c>
+      <c r="G155" t="s">
+        <v>737</v>
+      </c>
+      <c r="H155" t="s">
+        <v>737</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" t="s">
+        <v>738</v>
+      </c>
+      <c r="K155" t="s">
+        <v>516</v>
+      </c>
+      <c r="L155" t="s">
+        <v>739</v>
+      </c>
+      <c r="M155" t="s">
+        <v>128</v>
+      </c>
+      <c r="N155" t="s">
+        <v>734</v>
+      </c>
+      <c r="O155" t="s">
+        <v>436</v>
+      </c>
+      <c r="P155" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" t="s">
+        <v>740</v>
+      </c>
+      <c r="B156" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>741</v>
+      </c>
+      <c r="H156" t="s">
+        <v>741</v>
+      </c>
+      <c r="I156" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" t="s">
+        <v>216</v>
+      </c>
+      <c r="K156" t="s">
+        <v>667</v>
+      </c>
+      <c r="L156" t="s">
+        <v>21</v>
+      </c>
+      <c r="M156" t="s">
+        <v>19</v>
+      </c>
+      <c r="N156" t="s">
+        <v>742</v>
+      </c>
+      <c r="O156" t="s">
+        <v>49</v>
+      </c>
+      <c r="P156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>743</v>
+      </c>
+      <c r="B157" t="s">
+        <v>300</v>
+      </c>
+      <c r="C157" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" t="s">
+        <v>256</v>
+      </c>
+      <c r="E157" t="s">
+        <v>228</v>
+      </c>
+      <c r="F157" t="s">
+        <v>127</v>
+      </c>
+      <c r="G157" t="s">
+        <v>744</v>
+      </c>
+      <c r="H157" t="s">
+        <v>744</v>
+      </c>
+      <c r="I157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>745</v>
+      </c>
+      <c r="K157" t="s">
+        <v>229</v>
+      </c>
+      <c r="L157" t="s">
+        <v>746</v>
+      </c>
+      <c r="M157" t="s">
+        <v>256</v>
+      </c>
+      <c r="N157" t="s">
+        <v>277</v>
+      </c>
+      <c r="O157" t="s">
+        <v>421</v>
+      </c>
+      <c r="P157" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" t="s">
+        <v>747</v>
+      </c>
+      <c r="B158" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" t="s">
+        <v>233</v>
+      </c>
+      <c r="F158" t="s">
+        <v>234</v>
+      </c>
+      <c r="G158" t="s">
+        <v>748</v>
+      </c>
+      <c r="H158" t="s">
+        <v>748</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>749</v>
+      </c>
+      <c r="K158" t="s">
+        <v>667</v>
+      </c>
+      <c r="L158" t="s">
+        <v>21</v>
+      </c>
+      <c r="M158" t="s">
+        <v>256</v>
+      </c>
+      <c r="N158" t="s">
+        <v>673</v>
+      </c>
+      <c r="O158" t="s">
+        <v>49</v>
+      </c>
+      <c r="P158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>750</v>
+      </c>
+      <c r="B159" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" t="s">
+        <v>256</v>
+      </c>
+      <c r="E159" t="s">
+        <v>139</v>
+      </c>
+      <c r="F159" t="s">
+        <v>751</v>
+      </c>
+      <c r="G159" t="s">
+        <v>752</v>
+      </c>
+      <c r="H159" t="s">
+        <v>752</v>
+      </c>
+      <c r="I159" t="s">
+        <v>475</v>
+      </c>
+      <c r="J159" t="s">
+        <v>753</v>
+      </c>
+      <c r="K159" t="s">
+        <v>63</v>
+      </c>
+      <c r="L159" t="s">
+        <v>21</v>
+      </c>
+      <c r="M159" t="s">
+        <v>256</v>
+      </c>
+      <c r="N159" t="s">
+        <v>673</v>
+      </c>
+      <c r="O159" t="s">
+        <v>754</v>
+      </c>
+      <c r="P159" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>756</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" t="s">
+        <v>581</v>
+      </c>
+      <c r="F160" t="s">
+        <v>459</v>
+      </c>
+      <c r="G160" t="s">
+        <v>757</v>
+      </c>
+      <c r="H160" t="s">
+        <v>757</v>
+      </c>
+      <c r="I160" t="s">
+        <v>54</v>
+      </c>
+      <c r="J160" t="s">
+        <v>758</v>
+      </c>
+      <c r="K160" t="s">
+        <v>585</v>
+      </c>
+      <c r="L160" t="s">
+        <v>759</v>
+      </c>
+      <c r="M160" t="s">
+        <v>287</v>
+      </c>
+      <c r="N160" t="s">
+        <v>673</v>
+      </c>
+      <c r="O160" t="s">
+        <v>310</v>
+      </c>
+      <c r="P160" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="370">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -148,6 +148,63 @@
     <t>Undefined</t>
   </si>
   <si>
+    <t>#JTC00001022</t>
+  </si>
+  <si>
+    <t>20th ASOS</t>
+  </si>
+  <si>
+    <t>2019-04-01 20:47:01</t>
+  </si>
+  <si>
+    <t>Phone call inbound</t>
+  </si>
+  <si>
+    <t>Replacement RP-PC Monitor does not fit the mount</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Monitor</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>#JTC00001037</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>2019-04-03 20:46:25</t>
+  </si>
+  <si>
+    <t>Ranger 47-2 is falling apart</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Ranger 47</t>
+  </si>
+  <si>
+    <t>Ranger 47</t>
+  </si>
+  <si>
+    <t>#JTC00001038</t>
+  </si>
+  <si>
+    <t>2019-04-03 20:53:47</t>
+  </si>
+  <si>
+    <t>Primary game pad stopped working</t>
+  </si>
+  <si>
+    <t>Primary game pad failure</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Gamepad</t>
+  </si>
+  <si>
+    <t>Gamepad</t>
+  </si>
+  <si>
     <t>#JTC00000347</t>
   </si>
   <si>
@@ -244,6 +301,42 @@
     <t>Scalable Error</t>
   </si>
   <si>
+    <t>#JTC00001009</t>
+  </si>
+  <si>
+    <t>2019-03-28 18:21:25</t>
+  </si>
+  <si>
+    <t>Touch capability non-functional on top MVP monitor</t>
+  </si>
+  <si>
+    <t>MVP Top Monitor Touchscreen Capability non-functional</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware Monitor Cable</t>
+  </si>
+  <si>
+    <t>Monitor Cable</t>
+  </si>
+  <si>
+    <t>#JTC00001026</t>
+  </si>
+  <si>
+    <t>2019-04-02 18:30:20</t>
+  </si>
+  <si>
+    <t>Scenarios don't load fast enough and Student 2 has lost touch screen capability</t>
+  </si>
+  <si>
+    <t>#JTC00001034</t>
+  </si>
+  <si>
+    <t>2019-04-03 19:52:44</t>
+  </si>
+  <si>
+    <t>Radio applications are locked up and failing to tansmit</t>
+  </si>
+  <si>
     <t>#JTC00000564</t>
   </si>
   <si>
@@ -424,6 +517,15 @@
     <t xml:space="preserve">ROVER feed  </t>
   </si>
   <si>
+    <t>#JTC00001008</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:27:03</t>
+  </si>
+  <si>
+    <t>Incoming call from +12704619994</t>
+  </si>
+  <si>
     <t>#JTC00000789</t>
   </si>
   <si>
@@ -448,6 +550,36 @@
     <t xml:space="preserve">Projector 8 not booting up and has "XOXOXO" on it. Incorrect Resolution </t>
   </si>
   <si>
+    <t>#JTC00001001</t>
+  </si>
+  <si>
+    <t>2019-03-26 19:36:00</t>
+  </si>
+  <si>
+    <t>IG - 8 GPU critical failure</t>
+  </si>
+  <si>
+    <t>GPU Failure on IG 8. Swapped with EME-Server for temp fix.  Need new GPU for EME-Server</t>
+  </si>
+  <si>
+    <t>#JTC00001003</t>
+  </si>
+  <si>
+    <t>2019-03-26 19:44:32</t>
+  </si>
+  <si>
+    <t>DIScord Settings no Longer Function with Upgrade 2</t>
+  </si>
+  <si>
+    <t>DIScord no longer works with Upgrade 2</t>
+  </si>
+  <si>
+    <t>Root Cause - Software MACE Error</t>
+  </si>
+  <si>
+    <t>MACE Error</t>
+  </si>
+  <si>
     <t>#JTC00000765</t>
   </si>
   <si>
@@ -487,6 +619,15 @@
     <t>Tear in screen</t>
   </si>
   <si>
+    <t>#JTC00001011</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:55:15</t>
+  </si>
+  <si>
+    <t>EME Server will not shut down #JTC0000010</t>
+  </si>
+  <si>
     <t>#JTC00000702</t>
   </si>
   <si>
@@ -511,12 +652,6 @@
     <t>RP Station INOP on NATO Secret Drives</t>
   </si>
   <si>
-    <t>Root Cause - Software MACE Error</t>
-  </si>
-  <si>
-    <t>MACE Error</t>
-  </si>
-  <si>
     <t>#JTC00000654</t>
   </si>
   <si>
@@ -550,6 +685,24 @@
     <t>Issues with Sound/ASTi Post UG2/HF</t>
   </si>
   <si>
+    <t>#JTC00001012</t>
+  </si>
+  <si>
+    <t>2019-03-29 15:30:21</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>IOS turns on by itself</t>
+  </si>
+  <si>
+    <t>Root Cause - Hardware IOS PC</t>
+  </si>
+  <si>
+    <t>IOS PC</t>
+  </si>
+  <si>
     <t>#JTC00000540</t>
   </si>
   <si>
@@ -583,9 +736,6 @@
     <t>2019-02-26 18:42:08</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>Ranger 47 2 Inoperable</t>
   </si>
   <si>
@@ -814,6 +964,15 @@
     <t>MACE Detonation Tool Sound - Faulty Sound Mapping</t>
   </si>
   <si>
+    <t>#JTC00001006</t>
+  </si>
+  <si>
+    <t>2019-03-27 19:25:15</t>
+  </si>
+  <si>
+    <t>Multiple crashes during a DMO event</t>
+  </si>
+  <si>
     <t>#JTC00000568</t>
   </si>
   <si>
@@ -853,6 +1012,18 @@
     <t>Trigger pressure sensor is presumed to be faulty</t>
   </si>
   <si>
+    <t>#JTC00001013</t>
+  </si>
+  <si>
+    <t>2019-03-29 19:44:51</t>
+  </si>
+  <si>
+    <t>Runaway M-4 Carbine #2; device fires autonomously--repairs needed</t>
+  </si>
+  <si>
+    <t>Brian's 2nd M4 is now faulty and needs repairs. Will submit FR report</t>
+  </si>
+  <si>
     <t>#JTC00000926</t>
   </si>
   <si>
@@ -919,12 +1090,6 @@
     <t>Cables are out of stock</t>
   </si>
   <si>
-    <t>Root Cause - Hardware Monitor Cable</t>
-  </si>
-  <si>
-    <t>Monitor Cable</t>
-  </si>
-  <si>
     <t>#JTC00000943</t>
   </si>
   <si>
@@ -959,12 +1124,6 @@
   </si>
   <si>
     <t>black dot in the visual of ranger 1</t>
-  </si>
-  <si>
-    <t>Root Cause - Hardware Ranger 47</t>
-  </si>
-  <si>
-    <t>Ranger 47</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,154 +1743,154 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="P7" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="P8" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1740,113 +1899,113 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="P10" t="s">
         <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -1855,7 +2014,7 @@
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>83</v>
@@ -1867,7 +2026,7 @@
         <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
         <v>26</v>
@@ -1890,101 +2049,101 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1993,22 +2152,22 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2023,18 +2182,18 @@
         <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2043,22 +2202,22 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
@@ -2073,65 +2232,65 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2140,13 +2299,13 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
         <v>113</v>
@@ -2155,7 +2314,7 @@
         <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
         <v>114</v>
@@ -2164,39 +2323,39 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
         <v>119</v>
@@ -2217,98 +2376,98 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="P19" t="s">
         <v>122</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2323,42 +2482,42 @@
         <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -2373,92 +2532,92 @@
         <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
         <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -2467,48 +2626,48 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s">
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -2517,48 +2676,48 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -2567,48 +2726,48 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -2623,42 +2782,42 @@
         <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -2667,48 +2826,48 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
@@ -2717,48 +2876,48 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N28" t="s">
         <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
@@ -2767,48 +2926,48 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N29" t="s">
         <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
@@ -2817,48 +2976,48 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s">
         <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
         <v>172</v>
       </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" t="s">
-        <v>169</v>
-      </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -2867,71 +3026,71 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="N31" t="s">
         <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="P31" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
         <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2940,126 +3099,126 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
         <v>26</v>
       </c>
       <c r="O33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N34" t="s">
         <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="P34" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
         <v>194</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
         <v>195</v>
       </c>
-      <c r="H35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" t="s">
-        <v>196</v>
-      </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
@@ -3067,21 +3226,21 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
         <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -3090,25 +3249,25 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K36" t="s">
         <v>25</v>
@@ -3117,48 +3276,48 @@
         <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N36" t="s">
         <v>26</v>
       </c>
       <c r="O36" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
@@ -3167,48 +3326,48 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N37" t="s">
         <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K38" t="s">
         <v>25</v>
@@ -3217,48 +3376,48 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="P38" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
         <v>205</v>
       </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>193</v>
-      </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K39" t="s">
         <v>25</v>
@@ -3273,15 +3432,15 @@
         <v>26</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="P39" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -3290,25 +3449,25 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s">
         <v>25</v>
@@ -3317,98 +3476,98 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N40" t="s">
         <v>26</v>
       </c>
       <c r="O40" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
         <v>213</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>193</v>
-      </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="N41" t="s">
         <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -3417,24 +3576,24 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N42" t="s">
         <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -3443,22 +3602,22 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
@@ -3473,42 +3632,42 @@
         <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
         <v>25</v>
@@ -3517,98 +3676,98 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N44" t="s">
         <v>26</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="P44" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="J45" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K45" t="s">
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="M45" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="N45" t="s">
         <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K46" t="s">
         <v>25</v>
@@ -3617,98 +3776,98 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N46" t="s">
         <v>26</v>
       </c>
       <c r="O46" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>249</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>81</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
         <v>234</v>
       </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="P47" t="s">
         <v>235</v>
-      </c>
-      <c r="F47" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" t="s">
-        <v>237</v>
-      </c>
-      <c r="H47" t="s">
-        <v>237</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" t="s">
-        <v>238</v>
-      </c>
-      <c r="K47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" t="s">
-        <v>165</v>
-      </c>
-      <c r="P47" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K48" t="s">
         <v>25</v>
@@ -3717,48 +3876,48 @@
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N48" t="s">
         <v>26</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K49" t="s">
         <v>25</v>
@@ -3767,24 +3926,24 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
         <v>26</v>
       </c>
       <c r="O49" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -3793,22 +3952,22 @@
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K50" t="s">
         <v>25</v>
@@ -3823,15 +3982,15 @@
         <v>26</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -3843,22 +4002,22 @@
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
         <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K51" t="s">
         <v>25</v>
@@ -3873,18 +4032,18 @@
         <v>26</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="P51" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3893,28 +4052,28 @@
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s">
         <v>31</v>
@@ -3923,42 +4082,42 @@
         <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K53" t="s">
         <v>25</v>
@@ -3967,24 +4126,24 @@
         <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N53" t="s">
         <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -3993,22 +4152,22 @@
         <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
@@ -4023,42 +4182,42 @@
         <v>26</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="P54" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K55" t="s">
         <v>25</v>
@@ -4073,42 +4232,42 @@
         <v>26</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H56" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J56" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K56" t="s">
         <v>25</v>
@@ -4117,98 +4276,98 @@
         <v>23</v>
       </c>
       <c r="M56" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N56" t="s">
         <v>26</v>
       </c>
       <c r="O56" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F57" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s">
         <v>25</v>
       </c>
       <c r="L57" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N57" t="s">
         <v>26</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="P57" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
         <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G58" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K58" t="s">
         <v>25</v>
@@ -4223,42 +4382,42 @@
         <v>26</v>
       </c>
       <c r="O58" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="P58" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G59" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H59" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I59" t="s">
         <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K59" t="s">
         <v>25</v>
@@ -4267,48 +4426,48 @@
         <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N59" t="s">
         <v>26</v>
       </c>
       <c r="O59" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K60" t="s">
         <v>25</v>
@@ -4323,42 +4482,42 @@
         <v>26</v>
       </c>
       <c r="O60" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="P60" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K61" t="s">
         <v>25</v>
@@ -4367,21 +4526,21 @@
         <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N61" t="s">
         <v>26</v>
       </c>
       <c r="O61" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -4390,43 +4549,43 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G62" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K62" t="s">
         <v>25</v>
       </c>
       <c r="L62" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N62" t="s">
         <v>26</v>
       </c>
       <c r="O62" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4437,16 +4596,16 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G63" t="s">
         <v>304</v>
@@ -4464,119 +4623,769 @@
         <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N63" t="s">
         <v>26</v>
       </c>
       <c r="O63" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="P63" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F64" t="s">
+        <v>286</v>
+      </c>
+      <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>308</v>
+      </c>
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" t="s">
         <v>309</v>
       </c>
-      <c r="H64" t="s">
-        <v>309</v>
-      </c>
-      <c r="I64" t="s">
-        <v>49</v>
-      </c>
-      <c r="J64" t="s">
-        <v>310</v>
-      </c>
       <c r="K64" t="s">
         <v>25</v>
       </c>
       <c r="L64" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N64" t="s">
         <v>26</v>
       </c>
       <c r="O64" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="P64" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G65" t="s">
+        <v>311</v>
+      </c>
+      <c r="H65" t="s">
+        <v>311</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" t="s">
         <v>312</v>
       </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" t="s">
-        <v>307</v>
-      </c>
-      <c r="F65" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
         <v>313</v>
       </c>
-      <c r="H65" t="s">
-        <v>313</v>
-      </c>
-      <c r="I65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="K65" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="H66" t="s">
+        <v>314</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" t="s">
         <v>315</v>
       </c>
-      <c r="P65" t="s">
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
         <v>316</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" t="s">
+        <v>317</v>
+      </c>
+      <c r="H67" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" t="s">
+        <v>318</v>
+      </c>
+      <c r="K67" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>43</v>
+      </c>
+      <c r="P67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>320</v>
+      </c>
+      <c r="F68" t="s">
+        <v>321</v>
+      </c>
+      <c r="G68" t="s">
+        <v>322</v>
+      </c>
+      <c r="H68" t="s">
+        <v>322</v>
+      </c>
+      <c r="I68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" t="s">
+        <v>323</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>324</v>
+      </c>
+      <c r="P68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G69" t="s">
+        <v>329</v>
+      </c>
+      <c r="H69" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" t="s">
+        <v>331</v>
+      </c>
+      <c r="M69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>328</v>
+      </c>
+      <c r="G70" t="s">
+        <v>333</v>
+      </c>
+      <c r="H70" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" t="s">
+        <v>334</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
+        <v>335</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" t="s">
+        <v>338</v>
+      </c>
+      <c r="G71" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" t="s">
+        <v>339</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" t="s">
+        <v>340</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>133</v>
+      </c>
+      <c r="P71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" t="s">
+        <v>338</v>
+      </c>
+      <c r="G72" t="s">
+        <v>342</v>
+      </c>
+      <c r="H72" t="s">
+        <v>342</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" t="s">
+        <v>343</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" t="s">
+        <v>64</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>344</v>
+      </c>
+      <c r="P72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" t="s">
+        <v>338</v>
+      </c>
+      <c r="G73" t="s">
+        <v>347</v>
+      </c>
+      <c r="H73" t="s">
+        <v>347</v>
+      </c>
+      <c r="I73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" t="s">
+        <v>348</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>43</v>
+      </c>
+      <c r="P73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>350</v>
+      </c>
+      <c r="F74" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" t="s">
+        <v>352</v>
+      </c>
+      <c r="H74" t="s">
+        <v>352</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" t="s">
+        <v>353</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
+        <v>81</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>354</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" t="s">
+        <v>355</v>
+      </c>
+      <c r="H75" t="s">
+        <v>355</v>
+      </c>
+      <c r="I75" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75" t="s">
+        <v>356</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" t="s">
+        <v>357</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" t="s">
+        <v>99</v>
+      </c>
+      <c r="P75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" t="s">
+        <v>351</v>
+      </c>
+      <c r="G76" t="s">
+        <v>359</v>
+      </c>
+      <c r="H76" t="s">
+        <v>359</v>
+      </c>
+      <c r="I76" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" t="s">
+        <v>360</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>362</v>
+      </c>
+      <c r="F77" t="s">
+        <v>363</v>
+      </c>
+      <c r="G77" t="s">
+        <v>364</v>
+      </c>
+      <c r="H77" t="s">
+        <v>364</v>
+      </c>
+      <c r="I77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77" t="s">
+        <v>365</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" t="s">
+        <v>366</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>99</v>
+      </c>
+      <c r="P77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>362</v>
+      </c>
+      <c r="F78" t="s">
+        <v>363</v>
+      </c>
+      <c r="G78" t="s">
+        <v>368</v>
+      </c>
+      <c r="H78" t="s">
+        <v>368</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" t="s">
+        <v>369</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
